--- a/Structure/1 - Whole System/EnBalance.xlsx
+++ b/Structure/1 - Whole System/EnBalance.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\SESH\SESH\Structure\1 - Whole System\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206280B-A0E3-4D6A-B4A4-102F5F46CB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11700"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working Out" sheetId="3" r:id="rId1"/>
@@ -16,10 +22,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Working Out'!$A$1:$C$136</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -205,13 +217,13 @@
     <t>Transfers &amp; Transformation In</t>
   </si>
   <si>
-    <t>Transfers, Transformation &amp; Losses</t>
+    <t>TTL*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,16 +450,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Good 3" xfId="7"/>
-    <cellStyle name="Good 4" xfId="3"/>
+    <cellStyle name="Good 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Good 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 13 3" xfId="1"/>
-    <cellStyle name="Normal 13 3 3" xfId="2"/>
-    <cellStyle name="Normal 35" xfId="6"/>
-    <cellStyle name="Normal 36" xfId="8"/>
-    <cellStyle name="Normal 37" xfId="9"/>
-    <cellStyle name="Normal 38" xfId="5"/>
-    <cellStyle name="Normal 39" xfId="4"/>
+    <cellStyle name="Normal 13 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 13 3 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 35" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 36" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 37" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 38" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 39" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,28 +729,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -773,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -792,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -811,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -830,7 +842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -849,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -868,7 +880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -887,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -906,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -925,7 +937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -944,7 +956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -963,7 +975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -982,7 +994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1001,7 +1013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +1032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1039,7 +1051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -1058,7 +1070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
@@ -1077,7 +1089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -1096,7 +1108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
@@ -1127,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1139,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -1163,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1175,7 +1187,7 @@
         <v>11953.572632683819</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1187,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -1199,7 +1211,7 @@
         <v>2967.9976667947853</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -1211,7 +1223,7 @@
         <v>6710.5260209438939</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>972.4461777555448</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1235,7 +1247,7 @@
         <v>11650.208054151652</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
@@ -1247,7 +1259,7 @@
         <v>1038.9119930141237</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>357.81481657388258</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -1271,7 +1283,7 @@
         <v>263.24567172082999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1295,7 @@
         <v>4376.0488430404521</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1295,7 +1307,7 @@
         <v>268.09599756874275</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1307,7 +1319,7 @@
         <v>593.66732290216498</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -1319,7 +1331,7 @@
         <v>24954.6563307059</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -1331,7 +1343,7 @@
         <v>14091.653365434298</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
@@ -1343,7 +1355,7 @@
         <v>30219.38193800786</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
@@ -1355,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
@@ -1367,7 +1379,7 @@
         <v>60.93324677558072</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>54</v>
       </c>
@@ -1379,7 +1391,7 @@
         <v>895.70385173293903</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
@@ -1392,7 +1404,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>54</v>
       </c>
@@ -1405,7 +1417,7 @@
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>54</v>
       </c>
@@ -1417,7 +1429,7 @@
         <v>853.86957673520146</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>4578.6809905426071</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1441,7 +1453,7 @@
         <v>845.39852171455186</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1453,7 +1465,7 @@
         <v>227.33523256795777</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -1465,7 +1477,7 @@
         <v>28.201536535983525</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1477,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -1489,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -1501,7 +1513,7 @@
         <v>79.380273003241854</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -1513,7 +1525,7 @@
         <v>151.39981736084357</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -1525,7 +1537,7 @@
         <v>68.122607640065851</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -1537,7 +1549,7 @@
         <v>120.93006268598701</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>624.70011117190791</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>46</v>
       </c>
@@ -1561,7 +1573,7 @@
         <v>5786.0209006781306</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>47</v>
       </c>
@@ -1573,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>16</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -1597,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>16</v>
       </c>
@@ -1609,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>16</v>
       </c>
@@ -1621,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
@@ -1633,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>16</v>
       </c>
@@ -1645,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>16</v>
       </c>
@@ -1657,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>16</v>
       </c>
@@ -1669,7 +1681,7 @@
         <v>5786.0209006781306</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
@@ -1681,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>47</v>
       </c>
@@ -1693,7 +1705,7 @@
         <v>119.63693035253721</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>1226.1036973344865</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>58</v>
       </c>
@@ -1717,7 +1729,7 @@
         <v>4185.5311999527758</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
@@ -1741,7 +1753,7 @@
         <v>730.47154133671813</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +1765,7 @@
         <v>1090.4646125001088</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
@@ -1765,7 +1777,7 @@
         <v>37.716437475378008</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>17</v>
       </c>
@@ -1777,7 +1789,7 @@
         <v>771.63008638802933</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>455.85862543396365</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>46</v>
       </c>
@@ -1801,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -1813,7 +1825,7 @@
         <v>119.63693035253721</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>57</v>
       </c>
@@ -1825,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -1837,7 +1849,7 @@
         <v>121.41584435849438</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>57</v>
       </c>
@@ -1849,7 +1861,7 @@
         <v>61.272933863648511</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>57</v>
       </c>
@@ -1861,7 +1873,7 @@
         <v>9.8974895872053352</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>57</v>
       </c>
@@ -1873,7 +1885,7 @@
         <v>24.494109492182364</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>57</v>
       </c>
@@ -1885,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>57</v>
       </c>
@@ -1897,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>57</v>
       </c>
@@ -1909,7 +1921,7 @@
         <v>25.751311415458161</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -1920,77 +1932,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="24"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="24"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="24"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="24"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="24"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="24"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C136"/>
+  <autoFilter ref="A1:C136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="4" customWidth="1"/>
-    <col min="2" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" style="4" customWidth="1"/>
+    <col min="2" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2845,14 +2857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="A21:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2899,7 +2911,7 @@
       </c>
       <c r="B5" t="str">
         <f>'Working Out'!I5</f>
-        <v>Transfers, Transformation &amp; Losses</v>
+        <v>TTL*</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3058,16 +3070,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A88" sqref="A88:C166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3078,7 +3090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>VLOOKUP('Working Out'!A2,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3092,7 +3104,7 @@
         <v>507.44028852584307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>VLOOKUP('Working Out'!A3,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3106,7 +3118,7 @@
         <v>8.7004155918601298E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>VLOOKUP('Working Out'!A4,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3120,7 +3132,7 @@
         <v>365.33074165217158</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>VLOOKUP('Working Out'!A5,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3134,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>VLOOKUP('Working Out'!A6,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3148,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>VLOOKUP('Working Out'!A7,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3162,7 +3174,7 @@
         <v>93.280083568398254</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>VLOOKUP('Working Out'!A8,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3176,7 +3188,7 @@
         <v>45.931319073176653</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>VLOOKUP('Working Out'!A9,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3190,7 +3202,7 @@
         <v>0.32053293805785971</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>VLOOKUP('Working Out'!A10,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3204,7 +3216,7 @@
         <v>2.5776199944543379</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>VLOOKUP('Working Out'!A11,'Working Out'!$I:$J,2,0)</f>
         <v>5</v>
@@ -3218,7 +3230,7 @@
         <v>1161.1181736533529</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>VLOOKUP('Working Out'!A12,'Working Out'!$I:$J,2,0)</f>
         <v>6</v>
@@ -3232,7 +3244,7 @@
         <v>2166.5480558023851</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>VLOOKUP('Working Out'!A13,'Working Out'!$I:$J,2,0)</f>
         <v>7</v>
@@ -3246,7 +3258,7 @@
         <v>4013.3616070159369</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>VLOOKUP('Working Out'!A14,'Working Out'!$I:$J,2,0)</f>
         <v>8</v>
@@ -3260,7 +3272,7 @@
         <v>4482.2084210939547</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>VLOOKUP('Working Out'!A15,'Working Out'!$I:$J,2,0)</f>
         <v>9</v>
@@ -3274,7 +3286,7 @@
         <v>2017.1033433724147</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>VLOOKUP('Working Out'!A16,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3288,7 +3300,7 @@
         <v>48589.840699024528</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>VLOOKUP('Working Out'!A17,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3302,7 +3314,7 @@
         <v>5377.4142107157004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>VLOOKUP('Working Out'!A18,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3316,7 +3328,7 @@
         <v>42065.105302522512</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>VLOOKUP('Working Out'!A19,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3330,7 +3342,7 @@
         <v>51.437059283466994</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>VLOOKUP('Working Out'!A20,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3344,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>VLOOKUP('Working Out'!A21,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3358,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>VLOOKUP('Working Out'!A22,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3372,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>VLOOKUP('Working Out'!A23,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3386,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>VLOOKUP('Working Out'!A24,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3400,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>VLOOKUP('Working Out'!A25,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3414,7 +3426,7 @@
         <v>11953.572632683819</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>VLOOKUP('Working Out'!A26,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3428,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>VLOOKUP('Working Out'!A27,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3442,7 +3454,7 @@
         <v>2967.9976667947853</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>VLOOKUP('Working Out'!A28,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3456,7 +3468,7 @@
         <v>6710.5260209438939</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>VLOOKUP('Working Out'!A29,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3470,7 +3482,7 @@
         <v>972.4461777555448</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>VLOOKUP('Working Out'!A30,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3484,7 +3496,7 @@
         <v>11650.208054151652</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>VLOOKUP('Working Out'!A31,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3498,7 +3510,7 @@
         <v>1038.9119930141237</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>VLOOKUP('Working Out'!A32,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3512,7 +3524,7 @@
         <v>357.81481657388258</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>VLOOKUP('Working Out'!A33,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3526,7 +3538,7 @@
         <v>263.24567172082999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>VLOOKUP('Working Out'!A34,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3540,7 +3552,7 @@
         <v>4376.0488430404521</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>VLOOKUP('Working Out'!A35,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3554,7 +3566,7 @@
         <v>268.09599756874275</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>VLOOKUP('Working Out'!A36,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3568,7 +3580,7 @@
         <v>593.66732290216498</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>VLOOKUP('Working Out'!A37,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3582,7 +3594,7 @@
         <v>24954.6563307059</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>VLOOKUP('Working Out'!A38,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3596,7 +3608,7 @@
         <v>14091.653365434298</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>VLOOKUP('Working Out'!A39,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3610,7 +3622,7 @@
         <v>30219.38193800786</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>VLOOKUP('Working Out'!A40,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3624,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>VLOOKUP('Working Out'!A41,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3638,7 +3650,7 @@
         <v>60.93324677558072</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>VLOOKUP('Working Out'!A42,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3652,7 +3664,7 @@
         <v>895.70385173293903</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>VLOOKUP('Working Out'!A43,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3666,7 +3678,7 @@
         <v>2437.826076868796</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>VLOOKUP('Working Out'!A44,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3680,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>VLOOKUP('Working Out'!A45,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3694,7 +3706,7 @@
         <v>853.86957673520146</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>VLOOKUP('Working Out'!A46,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3708,7 +3720,7 @@
         <v>4578.6809905426071</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>VLOOKUP('Working Out'!A47,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3722,7 +3734,7 @@
         <v>845.39852171455186</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>VLOOKUP('Working Out'!A48,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3736,7 +3748,7 @@
         <v>227.33523256795777</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>VLOOKUP('Working Out'!A49,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3750,7 +3762,7 @@
         <v>28.201536535983525</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>VLOOKUP('Working Out'!A50,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3764,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>VLOOKUP('Working Out'!A51,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3778,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>VLOOKUP('Working Out'!A52,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3792,7 +3804,7 @@
         <v>79.380273003241854</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>VLOOKUP('Working Out'!A53,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3806,7 +3818,7 @@
         <v>151.39981736084357</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>VLOOKUP('Working Out'!A54,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3820,7 +3832,7 @@
         <v>68.122607640065851</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>VLOOKUP('Working Out'!A55,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3834,7 +3846,7 @@
         <v>120.93006268598701</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>VLOOKUP('Working Out'!A56,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3848,7 +3860,7 @@
         <v>624.70011117190791</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>VLOOKUP('Working Out'!A57,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3862,7 +3874,7 @@
         <v>5786.0209006781306</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>VLOOKUP('Working Out'!A58,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3876,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>VLOOKUP('Working Out'!A59,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3890,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>VLOOKUP('Working Out'!A60,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3904,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>VLOOKUP('Working Out'!A61,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3918,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>VLOOKUP('Working Out'!A62,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3932,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>VLOOKUP('Working Out'!A63,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3946,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>VLOOKUP('Working Out'!A64,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3960,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>VLOOKUP('Working Out'!A65,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3974,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>VLOOKUP('Working Out'!A66,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3988,7 +4000,7 @@
         <v>5786.0209006781306</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>VLOOKUP('Working Out'!A67,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -4002,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>VLOOKUP('Working Out'!A68,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -4016,7 +4028,7 @@
         <v>119.63693035253721</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>VLOOKUP('Working Out'!A69,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4030,7 +4042,7 @@
         <v>1226.1036973344865</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>VLOOKUP('Working Out'!A70,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -4044,7 +4056,7 @@
         <v>4185.5311999527758</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>VLOOKUP('Working Out'!A71,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4058,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>VLOOKUP('Working Out'!A72,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4072,7 +4084,7 @@
         <v>730.47154133671813</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>VLOOKUP('Working Out'!A73,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4086,7 +4098,7 @@
         <v>1090.4646125001088</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>VLOOKUP('Working Out'!A74,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4100,7 +4112,7 @@
         <v>37.716437475378008</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>VLOOKUP('Working Out'!A75,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4114,7 +4126,7 @@
         <v>771.63008638802933</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>VLOOKUP('Working Out'!A76,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4128,7 +4140,7 @@
         <v>455.85862543396365</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>VLOOKUP('Working Out'!A77,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -4142,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>VLOOKUP('Working Out'!A78,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -4156,7 +4168,7 @@
         <v>119.63693035253721</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>VLOOKUP('Working Out'!A79,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4170,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>VLOOKUP('Working Out'!A80,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -4184,7 +4196,7 @@
         <v>121.41584435849438</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>VLOOKUP('Working Out'!A81,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4198,7 +4210,7 @@
         <v>61.272933863648511</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>VLOOKUP('Working Out'!A82,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4212,7 +4224,7 @@
         <v>9.8974895872053352</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>VLOOKUP('Working Out'!A83,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4226,7 +4238,7 @@
         <v>24.494109492182364</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>VLOOKUP('Working Out'!A84,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4240,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>VLOOKUP('Working Out'!A85,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4254,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>VLOOKUP('Working Out'!A86,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4268,7 +4280,7 @@
         <v>25.751311415458161</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>VLOOKUP('Working Out'!A87,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -4288,21 +4300,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4319,7 +4331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -4337,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -4356,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -4375,7 +4387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -4394,7 +4406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,7 +4425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -4432,7 +4444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4451,7 +4463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -4470,7 +4482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -4489,7 +4501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -4508,7 +4520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -4527,7 +4539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4546,7 +4558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -4565,7 +4577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -4584,7 +4596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4603,7 +4615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -4622,7 +4634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -4641,7 +4653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -4660,7 +4672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -4679,7 +4691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -4698,7 +4710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -4717,7 +4729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -4736,7 +4748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -4755,7 +4767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -4774,7 +4786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -4793,7 +4805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -4805,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -4817,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -4829,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -4841,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -4853,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -4865,7 +4877,7 @@
         <v>2559.5052509966904</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -4877,7 +4889,7 @@
         <v>9394.0673816871295</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -4889,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -4901,7 +4913,7 @@
         <v>2967.9976667947853</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
@@ -4913,7 +4925,7 @@
         <v>6710.5260209438939</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -4925,7 +4937,7 @@
         <v>972.4461777555448</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -4937,7 +4949,7 @@
         <v>19.073019937128301</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
@@ -4949,7 +4961,7 @@
         <v>1038.9119930141237</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
@@ -4961,7 +4973,7 @@
         <v>357.81481657388258</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
@@ -4973,7 +4985,7 @@
         <v>263.24567172082999</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>13</v>
       </c>
@@ -4985,7 +4997,7 @@
         <v>4376.0488430404521</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
@@ -4998,7 +5010,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -5011,7 +5023,7 @@
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -5023,7 +5035,7 @@
         <v>357.81481657388258</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -5035,7 +5047,7 @@
         <v>263.24567172082999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -5047,7 +5059,7 @@
         <v>4376.0488430404521</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -5059,7 +5071,7 @@
         <v>268.09599756874275</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -5071,7 +5083,7 @@
         <v>2559.5052509966904</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -5083,7 +5095,7 @@
         <v>9071.6297832178334</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -5095,7 +5107,7 @@
         <v>592.27299800725962</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
@@ -5107,7 +5119,7 @@
         <v>24954.6563307059</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>47</v>
       </c>
@@ -5119,7 +5131,7 @@
         <v>14091.653365434298</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
@@ -5131,7 +5143,7 @@
         <v>30219.38193800786</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -5143,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -5155,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
@@ -5167,7 +5179,7 @@
         <v>60.93324677558072</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>54</v>
       </c>
@@ -5179,7 +5191,7 @@
         <v>895.70385173293903</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>54</v>
       </c>
@@ -5191,7 +5203,7 @@
         <v>2437.826076868796</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -5203,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>54</v>
       </c>
@@ -5215,7 +5227,7 @@
         <v>853.86957673520146</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5227,7 +5239,7 @@
         <v>60.93324677558072</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -5239,7 +5251,7 @@
         <v>895.70385173293903</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -5251,7 +5263,7 @@
         <v>2437.826076868796</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -5263,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -5275,7 +5287,7 @@
         <v>853.86957673520146</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>52</v>
       </c>
@@ -5287,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>54</v>
       </c>
@@ -5299,7 +5311,7 @@
         <v>962.87537035222795</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>54</v>
       </c>
@@ -5311,7 +5323,7 @@
         <v>3615.8056201903792</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
@@ -5323,7 +5335,7 @@
         <v>845.39852171455186</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>47</v>
       </c>
@@ -5335,7 +5347,7 @@
         <v>227.33523256795777</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>56</v>
       </c>
@@ -5347,7 +5359,7 @@
         <v>28.201536535983525</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
@@ -5359,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>48</v>
       </c>
@@ -5371,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>56</v>
       </c>
@@ -5383,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>56</v>
       </c>
@@ -5395,7 +5407,7 @@
         <v>79.380273003241854</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>56</v>
       </c>
@@ -5407,7 +5419,7 @@
         <v>151.39981736084357</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>56</v>
       </c>
@@ -5419,7 +5431,7 @@
         <v>68.122607640065851</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>56</v>
       </c>
@@ -5431,7 +5443,7 @@
         <v>120.93006268598701</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -5443,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -5455,7 +5467,7 @@
         <v>79.380273003241854</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
@@ -5467,7 +5479,7 @@
         <v>151.39981736084357</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -5479,7 +5491,7 @@
         <v>68.122607640065851</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
@@ -5491,7 +5503,7 @@
         <v>120.93006268598701</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -5503,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>56</v>
       </c>
@@ -5515,7 +5527,7 @@
         <v>624.70011117190791</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>56</v>
       </c>
@@ -5527,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>46</v>
       </c>
@@ -5539,7 +5551,7 @@
         <v>5786.0209006781306</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>47</v>
       </c>
@@ -5551,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>16</v>
       </c>
@@ -5563,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -5575,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>48</v>
       </c>
@@ -5587,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>16</v>
       </c>
@@ -5599,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>16</v>
       </c>
@@ -5611,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>16</v>
       </c>
@@ -5623,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>16</v>
       </c>
@@ -5635,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>16</v>
       </c>
@@ -5647,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -5659,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -5671,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -5683,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
@@ -5695,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -5707,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>16</v>
       </c>
@@ -5719,7 +5731,7 @@
         <v>1952.9624355017334</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>16</v>
       </c>
@@ -5731,7 +5743,7 @@
         <v>3833.0584651763975</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>16</v>
       </c>
@@ -5743,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>46</v>
       </c>
@@ -5755,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>47</v>
       </c>
@@ -5767,7 +5779,7 @@
         <v>119.63693035253721</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>17</v>
       </c>
@@ -5779,7 +5791,7 @@
         <v>1226.1036973344865</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>14</v>
       </c>
@@ -5791,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>48</v>
       </c>
@@ -5803,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>17</v>
       </c>
@@ -5815,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>17</v>
       </c>
@@ -5827,7 +5839,7 @@
         <v>730.47154133671813</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>17</v>
       </c>
@@ -5839,7 +5851,7 @@
         <v>1090.4646125001088</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>17</v>
       </c>
@@ -5851,7 +5863,7 @@
         <v>37.716437475378008</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>17</v>
       </c>
@@ -5863,7 +5875,7 @@
         <v>771.63008638802933</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -5875,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -5887,7 +5899,7 @@
         <v>730.47154133671813</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -5899,7 +5911,7 @@
         <v>1090.4646125001088</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
@@ -5911,7 +5923,7 @@
         <v>37.716437475378008</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
@@ -5923,7 +5935,7 @@
         <v>771.63008638802933</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>52</v>
       </c>
@@ -5935,7 +5947,7 @@
         <v>1952.9624355017334</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>53</v>
       </c>
@@ -5947,7 +5959,7 @@
         <v>2232.5687644510422</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>17</v>
       </c>
@@ -5959,7 +5971,7 @@
         <v>455.85862543396365</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>46</v>
       </c>
@@ -5971,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>47</v>
       </c>
@@ -5983,7 +5995,7 @@
         <v>119.63693035253721</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>57</v>
       </c>
@@ -5995,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -6007,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>48</v>
       </c>
@@ -6019,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>57</v>
       </c>
@@ -6031,7 +6043,7 @@
         <v>61.272933863648511</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>57</v>
       </c>
@@ -6043,7 +6055,7 @@
         <v>9.8974895872053352</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>57</v>
       </c>
@@ -6055,7 +6067,7 @@
         <v>24.494109492182364</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>57</v>
       </c>
@@ -6067,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>57</v>
       </c>
@@ -6079,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -6091,7 +6103,7 @@
         <v>61.272933863648511</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -6103,7 +6115,7 @@
         <v>9.8974895872053352</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -6115,7 +6127,7 @@
         <v>24.494109492182364</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -6127,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -6139,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>52</v>
       </c>
@@ -6151,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>53</v>
       </c>
@@ -6163,7 +6175,7 @@
         <v>121.41584435849438</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>57</v>
       </c>

--- a/Structure/1 - Whole System/EnBalance.xlsx
+++ b/Structure/1 - Whole System/EnBalance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\SESH\SESH\Structure\1 - Whole System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\SESH\Structure\1 - Whole System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206280B-A0E3-4D6A-B4A4-102F5F46CB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7B0059-A076-46E2-8382-CCF021BA1960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working Out" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="59">
   <si>
     <t>Source</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Indigenous production</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Imports (2)</t>
@@ -739,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -769,17 +766,17 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="24">
         <f>'Energy Balance 2017'!B5</f>
-        <v>507.44028852584307</v>
+        <v>401.93995414158786</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -787,17 +784,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="24">
         <f>'Energy Balance 2017'!B6</f>
-        <v>8.7004155918601298E-6</v>
+        <v>3.3916809974204643E-5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3">
         <f>J2+1</f>
@@ -813,7 +810,7 @@
       </c>
       <c r="C4" s="24">
         <f>-'Energy Balance 2017'!B9</f>
-        <v>365.33074165217158</v>
+        <v>275.65451944274798</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
@@ -825,7 +822,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -835,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -854,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -870,7 +867,7 @@
       </c>
       <c r="C7" s="24">
         <f>'Energy Balance 2017'!B25</f>
-        <v>93.280083568398254</v>
+        <v>80.37196056133088</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>7</v>
@@ -889,7 +886,7 @@
       </c>
       <c r="C8" s="24">
         <f>'Energy Balance 2017'!B26</f>
-        <v>45.931319073176653</v>
+        <v>43.430782459157591</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>8</v>
@@ -908,7 +905,7 @@
       </c>
       <c r="C9" s="24">
         <f>'Energy Balance 2017'!B27</f>
-        <v>0.32053293805785971</v>
+        <v>0.36113499570077584</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>9</v>
@@ -927,7 +924,7 @@
       </c>
       <c r="C10" s="24">
         <f>'Energy Balance 2017'!B28</f>
-        <v>2.5776199944543379</v>
+        <v>2.1129921471820268</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -942,11 +939,11 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="24">
         <f>C6+C20+C31+C41+C51+C61+C71+C81</f>
-        <v>1161.1181736533529</v>
+        <v>1237.1485344725234</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -961,14 +958,14 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="24">
         <f>C7+C21+C32+C42+C52+C62+C72+C82</f>
-        <v>2166.5480558023851</v>
+        <v>2016.0621146414685</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
@@ -980,11 +977,11 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="24">
         <f>C8+C22+C33+C43+C53+C63+C73+C83</f>
-        <v>4013.3616070159369</v>
+        <v>3907.4519083887267</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>5</v>
@@ -999,14 +996,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="24">
         <f>C9+C23+C34+C44+C54+C64+C74+C84</f>
-        <v>4482.2084210939547</v>
+        <v>4579.910170462239</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -1018,11 +1015,11 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="24">
         <f>C10+C24+C35+C45+C55+C65+C75+C85</f>
-        <v>2017.1033433724147</v>
+        <v>2217.2009745582945</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>13</v>
@@ -1034,17 +1031,17 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="24">
         <f>'Energy Balance 2017'!C5</f>
-        <v>48589.840699024528</v>
+        <v>52926.146686182503</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -1053,17 +1050,17 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="24">
         <f>'Energy Balance 2017'!C6</f>
-        <v>5377.4142107157004</v>
+        <v>6090.2525177746411</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
@@ -1072,14 +1069,14 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="24">
         <f>-'Energy Balance 2017'!C9</f>
-        <v>42065.105302522512</v>
+        <v>47955.704136857777</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>16</v>
@@ -1091,14 +1088,14 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="24">
         <f>'Energy Balance 2017'!C13</f>
-        <v>51.437059283466994</v>
+        <v>44.849882055171939</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>17</v>
@@ -1110,7 +1107,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
@@ -1120,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -1141,7 +1138,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>9</v>
@@ -1153,7 +1150,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -1165,7 +1162,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
@@ -1177,19 +1174,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="24">
         <f>-'Energy Balance 2017'!C17+-'Energy Balance 2017'!C18</f>
-        <v>11953.572632683819</v>
+        <v>11105.544949154537</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
@@ -1201,14 +1198,14 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="24">
         <f>'Energy Balance 2017'!D6</f>
-        <v>2967.9976667947853</v>
+        <v>3176.6055366253076</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1220,7 +1217,7 @@
       </c>
       <c r="C28" s="24">
         <f>-'Energy Balance 2017'!D9</f>
-        <v>6710.5260209438939</v>
+        <v>5979.4983924660055</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1228,23 +1225,23 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="24">
         <f>-'Energy Balance 2017'!D12</f>
-        <v>972.4461777555448</v>
+        <v>1002.590149267652</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="24">
         <f>-'Energy Balance 2017'!D13+'Energy Balance 2017'!D17+'Energy Balance 2017'!D18</f>
-        <v>11650.208054151652</v>
+        <v>10826.556017397801</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1256,7 +1253,7 @@
       </c>
       <c r="C31" s="24">
         <f>'Energy Balance 2017'!D24</f>
-        <v>1038.9119930141237</v>
+        <v>1125.2647513822537</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1268,7 +1265,7 @@
       </c>
       <c r="C32" s="24">
         <f>'Energy Balance 2017'!D25</f>
-        <v>357.81481657388258</v>
+        <v>177.56837512603184</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1280,7 +1277,7 @@
       </c>
       <c r="C33" s="24">
         <f>'Energy Balance 2017'!D26</f>
-        <v>263.24567172082999</v>
+        <v>263.14447083901541</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1292,7 +1289,7 @@
       </c>
       <c r="C34" s="24">
         <f>'Energy Balance 2017'!D27</f>
-        <v>4376.0488430404521</v>
+        <v>4449.0157472838027</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1304,7 +1301,7 @@
       </c>
       <c r="C35" s="24">
         <f>'Energy Balance 2017'!D28</f>
-        <v>268.09599756874275</v>
+        <v>512.53222676050734</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1312,55 +1309,55 @@
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="5">
         <f>'Energy Balance 2017'!D22-'Energy Balance 2017'!D15+-'Energy Balance 2017'!D15</f>
-        <v>593.66732290216498</v>
+        <v>584.11124447312568</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="5">
         <f>'Energy Balance 2017'!E5</f>
-        <v>24954.6563307059</v>
+        <v>24122.958278160062</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5">
         <f>'Energy Balance 2017'!E6</f>
-        <v>14091.653365434298</v>
+        <v>14063.185452902055</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="24">
         <f>-'Energy Balance 2017'!E9</f>
-        <v>30219.38193800786</v>
+        <v>28722.282377307893</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5">
         <f>'Energy Balance 2017'!E13+'Energy Balance 2017'!E17</f>
@@ -1369,44 +1366,44 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="24">
         <f>'Energy Balance 2017'!E24</f>
-        <v>60.93324677558072</v>
+        <v>59.263883971473689</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="5">
         <f>'Energy Balance 2017'!E25</f>
-        <v>895.70385173293903</v>
+        <v>935.55392882101103</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="24">
         <f>'Energy Balance 2017'!E26</f>
-        <v>2437.826076868796</v>
+        <v>2355.44966903881</v>
       </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -1419,70 +1416,70 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="24">
         <f>'Energy Balance 2017'!E28</f>
-        <v>853.86957673520146</v>
+        <v>873.61926755698801</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="24">
         <f>-'Energy Balance 2017'!E18+'Energy Balance 2017'!E22</f>
-        <v>4578.6809905426071</v>
+        <v>5239.9746043659452</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="5">
         <f>'Energy Balance 2017'!F5</f>
-        <v>845.39852171455186</v>
+        <v>757.20375649635287</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="5">
         <f>'Energy Balance 2017'!F6</f>
-        <v>227.33523256795777</v>
+        <v>241.11632141442743</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="24">
         <f>-'Energy Balance 2017'!F9</f>
-        <v>28.201536535983525</v>
+        <v>16.021582286988252</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="5">
         <f>'Energy Balance 2017'!F13+'Energy Balance 2017'!F17</f>
@@ -1491,7 +1488,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>7</v>
@@ -1503,79 +1500,79 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="5">
         <f>'Energy Balance 2017'!F25</f>
-        <v>79.380273003241854</v>
+        <v>98.132461902953565</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="24">
         <f>'Energy Balance 2017'!F26</f>
-        <v>151.39981736084357</v>
+        <v>160.10730182375826</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="24">
         <f>'Energy Balance 2017'!F27</f>
-        <v>68.122607640065851</v>
+        <v>92.185039969441235</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="24">
         <f>'Energy Balance 2017'!F28</f>
-        <v>120.93006268598701</v>
+        <v>86.643124076850185</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="24">
         <f>-'Energy Balance 2017'!F18+'Energy Balance 2017'!F22</f>
-        <v>624.70011117190791</v>
+        <v>544.66443420107191</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="5">
         <f>'Energy Balance 2017'!G5</f>
-        <v>5786.0209006781306</v>
+        <v>5034.0136633455586</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>16</v>
@@ -1599,7 +1596,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>16</v>
@@ -1674,16 +1671,16 @@
         <v>16</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="24">
         <f>-'Energy Balance 2017'!G17+-'Energy Balance 2017'!G18+'Energy Balance 2017'!G22</f>
-        <v>5786.0209006781306</v>
+        <v>5034.0136633455586</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>17</v>
@@ -1695,14 +1692,14 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="5">
         <f>'Energy Balance 2017'!H6</f>
-        <v>119.63693035253721</v>
+        <v>99.635167669819978</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1714,19 +1711,19 @@
       </c>
       <c r="C69" s="5">
         <f>-'Energy Balance 2017'!H9</f>
-        <v>1226.1036973344865</v>
+        <v>1261.8843508168598</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="5">
         <f>'Energy Balance 2017'!H13+'Energy Balance 2017'!H17+'Energy Balance 2017'!H18</f>
-        <v>4185.5311999527758</v>
+        <v>4147.5834302083695</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,7 +1747,7 @@
       </c>
       <c r="C72" s="5">
         <f>'Energy Balance 2017'!H25</f>
-        <v>730.47154133671813</v>
+        <v>714.94006808840356</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,7 +1759,7 @@
       </c>
       <c r="C73" s="5">
         <f>'Energy Balance 2017'!H26</f>
-        <v>1090.4646125001088</v>
+        <v>1059.1373970396792</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,7 +1771,7 @@
       </c>
       <c r="C74" s="5">
         <f>'Energy Balance 2017'!H27</f>
-        <v>37.716437475378008</v>
+        <v>38.348248213293964</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1786,7 +1783,7 @@
       </c>
       <c r="C75" s="5">
         <f>'Energy Balance 2017'!H28</f>
-        <v>771.63008638802933</v>
+        <v>742.29336401676699</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1794,19 +1791,19 @@
         <v>17</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C76" s="5">
         <f>'Energy Balance 2017'!H22</f>
-        <v>455.85862543396365</v>
+        <v>430.6151697031857</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" s="5">
         <f>'Energy Balance 2017'!H5</f>
@@ -1815,19 +1812,19 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" s="5">
         <f>'Energy Balance 2017'!H6</f>
-        <v>119.63693035253721</v>
+        <v>99.635167669819978</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -1839,55 +1836,55 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" s="5">
         <f>'Energy Balance 2017'!I13+'Energy Balance 2017'!I17+'Energy Balance 2017'!I18</f>
-        <v>121.41584435849438</v>
+        <v>118.85195238779175</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="5">
         <f>'Energy Balance 2017'!I24</f>
-        <v>61.272933863648511</v>
+        <v>52.619899118795843</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="5">
         <f>'Energy Balance 2017'!I25</f>
-        <v>9.8974895872053352</v>
+        <v>9.4953201417375954</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="5">
         <f>'Energy Balance 2017'!I26</f>
-        <v>24.494109492182364</v>
+        <v>26.182287188306248</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -1899,7 +1896,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -1911,19 +1908,19 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C86" s="5">
         <f>'Energy Balance 2017'!I22</f>
-        <v>25.751311415458161</v>
+        <v>30.554445938952057</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
@@ -1993,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,22 +2085,22 @@
         <v>29</v>
       </c>
       <c r="B5" s="20">
-        <v>507.44028852584307</v>
+        <v>401.93995414158786</v>
       </c>
       <c r="C5" s="20">
-        <v>48589.840699024528</v>
+        <v>52926.146686182503</v>
       </c>
       <c r="D5" s="20">
         <v>0</v>
       </c>
       <c r="E5" s="20">
-        <v>24954.6563307059</v>
+        <v>24122.958278160062</v>
       </c>
       <c r="F5" s="20">
-        <v>845.39852171455186</v>
+        <v>757.20375649635287</v>
       </c>
       <c r="G5" s="20">
-        <v>5786.0209006781306</v>
+        <v>5034.0136633455586</v>
       </c>
       <c r="H5" s="20">
         <v>0</v>
@@ -2112,56 +2109,56 @@
         <v>0</v>
       </c>
       <c r="J5" s="21">
-        <v>80683.35674064896</v>
+        <v>83242.262338326065</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="20">
-        <v>8.7004155918601298E-6</v>
+        <v>3.3916809974204643E-5</v>
       </c>
       <c r="C6" s="20">
-        <v>5377.4142107157004</v>
+        <v>6090.2525177746411</v>
       </c>
       <c r="D6" s="20">
-        <v>2967.9976667947853</v>
+        <v>3176.6055366253076</v>
       </c>
       <c r="E6" s="20">
-        <v>14091.653365434298</v>
+        <v>14063.185452902055</v>
       </c>
       <c r="F6" s="20">
-        <v>227.33523256795777</v>
+        <v>241.11632141442743</v>
       </c>
       <c r="G6" s="20">
         <v>0</v>
       </c>
       <c r="H6" s="20">
-        <v>119.63693035253721</v>
+        <v>99.635167669819978</v>
       </c>
       <c r="I6" s="20">
         <v>0</v>
       </c>
       <c r="J6" s="21">
-        <v>22784.037414565697</v>
+        <v>23670.795030303067</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="20">
         <v>0</v>
       </c>
       <c r="C7" s="20">
-        <v>5377.4142107157004</v>
+        <v>6090.2525177746411</v>
       </c>
       <c r="D7" s="20">
-        <v>2249.3242418032173</v>
+        <v>2446.5685462545644</v>
       </c>
       <c r="E7" s="20">
-        <v>14051.676698194402</v>
+        <v>14051.762682717188</v>
       </c>
       <c r="F7" s="20">
         <v>0</v>
@@ -2175,13 +2172,13 @@
       <c r="I7" s="20">
         <v>0</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>30</v>
+      <c r="J7" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="20">
         <v>0</v>
@@ -2190,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="20">
-        <v>718.67342499156814</v>
+        <v>730.03699037074352</v>
       </c>
       <c r="E8" s="20">
-        <v>39.97666723989704</v>
+        <v>11.422770184866787</v>
       </c>
       <c r="F8" s="20">
         <v>0</v>
@@ -2202,62 +2199,62 @@
         <v>0</v>
       </c>
       <c r="H8" s="20">
-        <v>119.63693035253721</v>
+        <v>99.635167669819978</v>
       </c>
       <c r="I8" s="20">
         <v>0</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>30</v>
+      <c r="J8" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="20">
-        <v>-365.33074165217158</v>
+        <v>-275.65451944274798</v>
       </c>
       <c r="C9" s="20">
-        <v>-42065.105302522512</v>
+        <v>-47955.704136857777</v>
       </c>
       <c r="D9" s="20">
-        <v>-6710.5260209438939</v>
+        <v>-5979.4983924660055</v>
       </c>
       <c r="E9" s="20">
-        <v>-30219.38193800786</v>
+        <v>-28722.282377307893</v>
       </c>
       <c r="F9" s="20">
-        <v>-28.201536535983525</v>
+        <v>-16.021582286988252</v>
       </c>
       <c r="G9" s="20">
         <v>0</v>
       </c>
       <c r="H9" s="20">
-        <v>-1226.1036973344865</v>
+        <v>-1261.8843508168598</v>
       </c>
       <c r="I9" s="20">
         <v>0</v>
       </c>
       <c r="J9" s="21">
-        <v>-80614.649236996906</v>
+        <v>-84211.045359178286</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="20">
         <v>0</v>
       </c>
       <c r="C10" s="20">
-        <v>-22245.008546123943</v>
+        <v>-22787.404014714884</v>
       </c>
       <c r="D10" s="20">
-        <v>-5607.2990068710478</v>
+        <v>-5596.7122406302451</v>
       </c>
       <c r="E10" s="20">
-        <v>-1679.111265264949</v>
+        <v>-1679.1112652649533</v>
       </c>
       <c r="F10" s="20">
         <v>0</v>
@@ -2271,25 +2268,25 @@
       <c r="I10" s="20">
         <v>0</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>30</v>
+      <c r="J10" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="20">
         <v>0</v>
       </c>
       <c r="C11" s="20">
-        <v>-19820.096756398569</v>
+        <v>-25168.300122142897</v>
       </c>
       <c r="D11" s="20">
-        <v>-1103.2270140728463</v>
+        <v>-382.78615183576028</v>
       </c>
       <c r="E11" s="20">
-        <v>-28540.27067274291</v>
+        <v>-27043.171112042939</v>
       </c>
       <c r="F11" s="20">
         <v>0</v>
@@ -2298,18 +2295,18 @@
         <v>0</v>
       </c>
       <c r="H11" s="20">
-        <v>-1226.1036973344865</v>
+        <v>-1261.8843508168598</v>
       </c>
       <c r="I11" s="20">
         <v>0</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>30</v>
+      <c r="J11" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="20">
         <v>0</v>
@@ -2318,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="20">
-        <v>-972.4461777555448</v>
+        <v>-1002.590149267652</v>
       </c>
       <c r="E12" s="20">
         <v>0</v>
@@ -2336,21 +2333,21 @@
         <v>0</v>
       </c>
       <c r="J12" s="21">
-        <v>-972.4461777555448</v>
+        <v>-1002.590149267652</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="20">
         <v>0</v>
       </c>
       <c r="C13" s="20">
-        <v>51.437059283466994</v>
+        <v>44.849882055171939</v>
       </c>
       <c r="D13" s="20">
-        <v>-19.073019937128301</v>
+        <v>44.719879280166758</v>
       </c>
       <c r="E13" s="20">
         <v>0</v>
@@ -2368,56 +2365,56 @@
         <v>0</v>
       </c>
       <c r="J13" s="21">
-        <v>32.364039346338693</v>
+        <v>89.569761335338697</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8">
-        <v>142.1095555740871</v>
+        <v>126.28546861564988</v>
       </c>
       <c r="C14" s="8">
-        <v>11953.586666501185</v>
+        <v>11105.544949154541</v>
       </c>
       <c r="D14" s="8">
-        <v>-4734.0475518417816</v>
+        <v>-3760.7631258281831</v>
       </c>
       <c r="E14" s="8">
-        <v>8826.9277581323367</v>
+        <v>9463.861353754226</v>
       </c>
       <c r="F14" s="8">
-        <v>1044.5328718620462</v>
+        <v>981.73236197407516</v>
       </c>
       <c r="G14" s="8">
-        <v>5786.0209006781306</v>
+        <v>5034.0136633455586</v>
       </c>
       <c r="H14" s="8">
-        <v>-1106.4667669819491</v>
+        <v>-1162.2491831470397</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
       </c>
       <c r="J14" s="9">
-        <v>21912.663433924055</v>
+        <v>21788.425487868826</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="20">
         <v>0</v>
       </c>
       <c r="C15" s="20">
-        <v>1.4033817365998402E-2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="20">
-        <v>-0.69716244745268341</v>
+        <v>-1.1240450149512071</v>
       </c>
       <c r="E15" s="20">
-        <v>8.5984522786020534E-2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="20">
         <v>0</v>
@@ -2426,59 +2423,59 @@
         <v>0</v>
       </c>
       <c r="H15" s="20">
-        <v>7.0768701633717228</v>
+        <v>0</v>
       </c>
       <c r="I15" s="20">
         <v>0</v>
       </c>
       <c r="J15" s="21">
-        <v>6.4797260560710583</v>
+        <v>-1.1240450149512071</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="8">
-        <v>142.1095555740871</v>
+        <v>126.28546861564988</v>
       </c>
       <c r="C16" s="8">
-        <v>11953.572632683819</v>
+        <v>11105.544949154537</v>
       </c>
       <c r="D16" s="8">
-        <v>-4734.7447142892343</v>
+        <v>-3761.8871708431343</v>
       </c>
       <c r="E16" s="8">
-        <v>8827.0137426551228</v>
+        <v>9463.8613537542296</v>
       </c>
       <c r="F16" s="8">
-        <v>1044.5328718620462</v>
+        <v>981.73236197407516</v>
       </c>
       <c r="G16" s="8">
-        <v>5786.0209006781306</v>
+        <v>5034.0136633455586</v>
       </c>
       <c r="H16" s="8">
-        <v>-1099.3898968185774</v>
+        <v>-1162.2491831470397</v>
       </c>
       <c r="I16" s="8">
         <v>0</v>
       </c>
       <c r="J16" s="9">
-        <v>21919.115092345393</v>
+        <v>21787.301442853874</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="20">
         <v>0</v>
       </c>
       <c r="C17" s="20">
-        <v>-2559.5052509966904</v>
+        <v>-1930.4810265331166</v>
       </c>
       <c r="D17" s="20">
-        <v>2559.5052509966904</v>
+        <v>1930.4810265331166</v>
       </c>
       <c r="E17" s="20">
         <v>0</v>
@@ -2487,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="20">
-        <v>-1952.9624355017334</v>
+        <v>-2092.7724080189364</v>
       </c>
       <c r="H17" s="20">
-        <v>1952.9624355017334</v>
+        <v>2092.7724080189364</v>
       </c>
       <c r="I17" s="20">
         <v>0</v>
@@ -2507,33 +2504,33 @@
         <v>0</v>
       </c>
       <c r="C18" s="20">
-        <v>-9394.0673816871295</v>
+        <v>-9175.0639226214207</v>
       </c>
       <c r="D18" s="20">
-        <v>9071.6297832178334</v>
+        <v>8940.7948701448513</v>
       </c>
       <c r="E18" s="20">
-        <v>-962.87537035222795</v>
+        <v>-1478.3858772496594</v>
       </c>
       <c r="F18" s="20">
-        <v>-624.70011117190791</v>
+        <v>-544.66443420107191</v>
       </c>
       <c r="G18" s="20">
-        <v>-3833.0584651763975</v>
+        <v>-2941.2412553266217</v>
       </c>
       <c r="H18" s="20">
-        <v>2232.5687644510422</v>
+        <v>2054.8110221894326</v>
       </c>
       <c r="I18" s="20">
-        <v>121.41584435849438</v>
+        <v>118.85195238779175</v>
       </c>
       <c r="J18" s="21">
-        <v>-3389.0869363602924</v>
+        <v>-3024.8976446766983</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="20">
         <v>0</v>
@@ -2542,39 +2539,39 @@
         <v>0</v>
       </c>
       <c r="D19" s="20">
-        <v>-213.22914566160273</v>
+        <v>-122.20203054151465</v>
       </c>
       <c r="E19" s="20">
-        <v>-778.00251947731238</v>
+        <v>-1296.428062330529</v>
       </c>
       <c r="F19" s="20">
-        <v>-611.64823405715549</v>
+        <v>-533.195107588528</v>
       </c>
       <c r="G19" s="20">
-        <v>-3833.0584651763975</v>
+        <v>-2941.2412553266217</v>
       </c>
       <c r="H19" s="20">
-        <v>2232.5687644510422</v>
+        <v>2054.8110221894326</v>
       </c>
       <c r="I19" s="20">
         <v>0</v>
       </c>
       <c r="J19" s="21">
-        <v>-3203.3695999214265</v>
+        <v>-2838.2554335977607</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="20">
         <v>0</v>
       </c>
       <c r="C20" s="20">
-        <v>-9394.0673816871295</v>
+        <v>-9175.0639226214207</v>
       </c>
       <c r="D20" s="20">
-        <v>9354.209237177869</v>
+        <v>9125.3215529965692</v>
       </c>
       <c r="E20" s="20">
         <v>0</v>
@@ -2592,12 +2589,12 @@
         <v>0</v>
       </c>
       <c r="J20" s="21">
-        <v>-39.858144509260455</v>
+        <v>-49.742369624851563</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="20">
         <v>0</v>
@@ -2606,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="20">
-        <v>-69.350308298432026</v>
+        <v>-62.324652310203362</v>
       </c>
       <c r="E21" s="20">
-        <v>-184.87285087491563</v>
+        <v>-181.95781491913053</v>
       </c>
       <c r="F21" s="20">
-        <v>-13.051877114752415</v>
+        <v>-11.46932661254391</v>
       </c>
       <c r="G21" s="20">
         <v>0</v>
@@ -2621,15 +2618,15 @@
         <v>0</v>
       </c>
       <c r="I21" s="20">
-        <v>121.41584435849438</v>
+        <v>118.85195238779175</v>
       </c>
       <c r="J21" s="21">
-        <v>-145.85919192960569</v>
+        <v>-136.89984145408604</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="20">
         <v>0</v>
@@ -2638,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="20">
-        <v>592.27299800725962</v>
+        <v>581.86315444322327</v>
       </c>
       <c r="E22" s="20">
-        <v>3615.8056201903792</v>
+        <v>3761.5887271162856</v>
       </c>
       <c r="F22" s="20">
         <v>0</v>
@@ -2650,45 +2647,45 @@
         <v>0</v>
       </c>
       <c r="H22" s="20">
-        <v>455.85862543396365</v>
+        <v>430.6151697031857</v>
       </c>
       <c r="I22" s="20">
-        <v>25.751311415458161</v>
+        <v>30.554445938952057</v>
       </c>
       <c r="J22" s="21">
-        <v>4689.6885550470606</v>
+        <v>4804.6214972016469</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="8">
-        <v>142.1095555740871</v>
+        <v>126.28546861564988</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
       </c>
       <c r="D23" s="8">
-        <v>6304.1173219180291</v>
+        <v>6527.5255713916094</v>
       </c>
       <c r="E23" s="8">
-        <v>4248.3327521125166</v>
+        <v>4223.8867493882835</v>
       </c>
       <c r="F23" s="8">
-        <v>419.83276069013823</v>
+        <v>437.06792777300325</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <v>2630.2826777002342</v>
+        <v>2554.7190773581437</v>
       </c>
       <c r="I23" s="8">
-        <v>95.664532943036221</v>
+        <v>88.297506448839698</v>
       </c>
       <c r="J23" s="9">
-        <v>13840.339600938039</v>
+        <v>13957.78230097553</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2702,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="20">
-        <v>1038.9119930141237</v>
+        <v>1125.2647513822537</v>
       </c>
       <c r="E24" s="20">
-        <v>60.93324677558072</v>
+        <v>59.263883971473689</v>
       </c>
       <c r="F24" s="20">
         <v>0</v>
@@ -2717,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="20">
-        <v>61.272933863648511</v>
+        <v>52.619899118795843</v>
       </c>
       <c r="J24" s="21">
-        <v>1161.1181736533529</v>
+        <v>1237.1485344725234</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2728,31 +2725,31 @@
         <v>8</v>
       </c>
       <c r="B25" s="20">
-        <v>93.280083568398254</v>
+        <v>80.37196056133088</v>
       </c>
       <c r="C25" s="20">
         <v>0</v>
       </c>
       <c r="D25" s="20">
-        <v>357.81481657388258</v>
+        <v>177.56837512603184</v>
       </c>
       <c r="E25" s="20">
-        <v>895.70385173293903</v>
+        <v>935.55392882101103</v>
       </c>
       <c r="F25" s="20">
-        <v>79.380273003241854</v>
+        <v>98.132461902953565</v>
       </c>
       <c r="G25" s="20">
         <v>0</v>
       </c>
       <c r="H25" s="20">
-        <v>730.47154133671813</v>
+        <v>714.94006808840356</v>
       </c>
       <c r="I25" s="20">
-        <v>9.8974895872053352</v>
+        <v>9.4953201417375954</v>
       </c>
       <c r="J25" s="21">
-        <v>2166.5480558023851</v>
+        <v>2016.0621146414685</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2760,31 +2757,31 @@
         <v>9</v>
       </c>
       <c r="B26" s="20">
-        <v>45.931319073176653</v>
+        <v>43.430782459157591</v>
       </c>
       <c r="C26" s="20">
         <v>0</v>
       </c>
       <c r="D26" s="20">
-        <v>263.24567172082999</v>
+        <v>263.14447083901541</v>
       </c>
       <c r="E26" s="20">
-        <v>2437.826076868796</v>
+        <v>2355.44966903881</v>
       </c>
       <c r="F26" s="20">
-        <v>151.39981736084357</v>
+        <v>160.10730182375826</v>
       </c>
       <c r="G26" s="20">
         <v>0</v>
       </c>
       <c r="H26" s="20">
-        <v>1090.4646125001088</v>
+        <v>1059.1373970396792</v>
       </c>
       <c r="I26" s="20">
-        <v>24.494109492182364</v>
+        <v>26.182287188306248</v>
       </c>
       <c r="J26" s="21">
-        <v>4013.3616070159369</v>
+        <v>3907.4519083887267</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2792,31 +2789,31 @@
         <v>10</v>
       </c>
       <c r="B27" s="20">
-        <v>0.32053293805785971</v>
+        <v>0.36113499570077584</v>
       </c>
       <c r="C27" s="20">
         <v>0</v>
       </c>
       <c r="D27" s="20">
-        <v>4376.0488430404521</v>
+        <v>4449.0157472838027</v>
       </c>
       <c r="E27" s="20">
         <v>0</v>
       </c>
       <c r="F27" s="20">
-        <v>68.122607640065851</v>
+        <v>92.185039969441235</v>
       </c>
       <c r="G27" s="20">
         <v>0</v>
       </c>
       <c r="H27" s="20">
-        <v>37.716437475378008</v>
+        <v>38.348248213293964</v>
       </c>
       <c r="I27" s="20">
         <v>0</v>
       </c>
       <c r="J27" s="21">
-        <v>4482.2084210939547</v>
+        <v>4579.910170462239</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2824,31 +2821,31 @@
         <v>11</v>
       </c>
       <c r="B28" s="22">
-        <v>2.5776199944543379</v>
+        <v>2.1129921471820268</v>
       </c>
       <c r="C28" s="22">
         <v>0</v>
       </c>
       <c r="D28" s="22">
-        <v>268.09599756874275</v>
+        <v>512.53222676050734</v>
       </c>
       <c r="E28" s="22">
-        <v>853.86957673520146</v>
+        <v>873.61926755698801</v>
       </c>
       <c r="F28" s="22">
-        <v>120.93006268598701</v>
+        <v>86.643124076850185</v>
       </c>
       <c r="G28" s="22">
         <v>0</v>
       </c>
       <c r="H28" s="22">
-        <v>771.63008638802933</v>
+        <v>742.29336401676699</v>
       </c>
       <c r="I28" s="22">
         <v>0</v>
       </c>
       <c r="J28" s="23">
-        <v>2017.1033433724147</v>
+        <v>2217.2009745582945</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3098,7 @@
       </c>
       <c r="C2">
         <f>'Working Out'!C2</f>
-        <v>507.44028852584307</v>
+        <v>401.93995414158786</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3115,7 +3112,7 @@
       </c>
       <c r="C3">
         <f>'Working Out'!C3</f>
-        <v>8.7004155918601298E-6</v>
+        <v>3.3916809974204643E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,7 +3126,7 @@
       </c>
       <c r="C4">
         <f>'Working Out'!C4</f>
-        <v>365.33074165217158</v>
+        <v>275.65451944274798</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3171,7 +3168,7 @@
       </c>
       <c r="C7">
         <f>'Working Out'!C7</f>
-        <v>93.280083568398254</v>
+        <v>80.37196056133088</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3185,7 +3182,7 @@
       </c>
       <c r="C8">
         <f>'Working Out'!C8</f>
-        <v>45.931319073176653</v>
+        <v>43.430782459157591</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3199,7 +3196,7 @@
       </c>
       <c r="C9">
         <f>'Working Out'!C9</f>
-        <v>0.32053293805785971</v>
+        <v>0.36113499570077584</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,7 +3210,7 @@
       </c>
       <c r="C10">
         <f>'Working Out'!C10</f>
-        <v>2.5776199944543379</v>
+        <v>2.1129921471820268</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3227,7 +3224,7 @@
       </c>
       <c r="C11">
         <f>'Working Out'!C11</f>
-        <v>1161.1181736533529</v>
+        <v>1237.1485344725234</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3241,7 +3238,7 @@
       </c>
       <c r="C12">
         <f>'Working Out'!C12</f>
-        <v>2166.5480558023851</v>
+        <v>2016.0621146414685</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3255,7 +3252,7 @@
       </c>
       <c r="C13">
         <f>'Working Out'!C13</f>
-        <v>4013.3616070159369</v>
+        <v>3907.4519083887267</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3269,7 +3266,7 @@
       </c>
       <c r="C14">
         <f>'Working Out'!C14</f>
-        <v>4482.2084210939547</v>
+        <v>4579.910170462239</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3283,7 +3280,7 @@
       </c>
       <c r="C15">
         <f>'Working Out'!C15</f>
-        <v>2017.1033433724147</v>
+        <v>2217.2009745582945</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3297,7 +3294,7 @@
       </c>
       <c r="C16">
         <f>'Working Out'!C16</f>
-        <v>48589.840699024528</v>
+        <v>52926.146686182503</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3311,7 +3308,7 @@
       </c>
       <c r="C17">
         <f>'Working Out'!C17</f>
-        <v>5377.4142107157004</v>
+        <v>6090.2525177746411</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3325,7 +3322,7 @@
       </c>
       <c r="C18">
         <f>'Working Out'!C18</f>
-        <v>42065.105302522512</v>
+        <v>47955.704136857777</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3339,7 +3336,7 @@
       </c>
       <c r="C19">
         <f>'Working Out'!C19</f>
-        <v>51.437059283466994</v>
+        <v>44.849882055171939</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3423,7 +3420,7 @@
       </c>
       <c r="C25">
         <f>'Working Out'!C25</f>
-        <v>11953.572632683819</v>
+        <v>11105.544949154537</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3451,7 +3448,7 @@
       </c>
       <c r="C27">
         <f>'Working Out'!C27</f>
-        <v>2967.9976667947853</v>
+        <v>3176.6055366253076</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3465,7 +3462,7 @@
       </c>
       <c r="C28">
         <f>'Working Out'!C28</f>
-        <v>6710.5260209438939</v>
+        <v>5979.4983924660055</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3479,7 +3476,7 @@
       </c>
       <c r="C29">
         <f>'Working Out'!C29</f>
-        <v>972.4461777555448</v>
+        <v>1002.590149267652</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3493,7 +3490,7 @@
       </c>
       <c r="C30">
         <f>'Working Out'!C30</f>
-        <v>11650.208054151652</v>
+        <v>10826.556017397801</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3507,7 +3504,7 @@
       </c>
       <c r="C31">
         <f>'Working Out'!C31</f>
-        <v>1038.9119930141237</v>
+        <v>1125.2647513822537</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3521,7 +3518,7 @@
       </c>
       <c r="C32">
         <f>'Working Out'!C32</f>
-        <v>357.81481657388258</v>
+        <v>177.56837512603184</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3535,7 +3532,7 @@
       </c>
       <c r="C33">
         <f>'Working Out'!C33</f>
-        <v>263.24567172082999</v>
+        <v>263.14447083901541</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,7 +3546,7 @@
       </c>
       <c r="C34">
         <f>'Working Out'!C34</f>
-        <v>4376.0488430404521</v>
+        <v>4449.0157472838027</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3563,7 +3560,7 @@
       </c>
       <c r="C35">
         <f>'Working Out'!C35</f>
-        <v>268.09599756874275</v>
+        <v>512.53222676050734</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3577,7 +3574,7 @@
       </c>
       <c r="C36">
         <f>'Working Out'!C36</f>
-        <v>593.66732290216498</v>
+        <v>584.11124447312568</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3591,7 +3588,7 @@
       </c>
       <c r="C37">
         <f>'Working Out'!C37</f>
-        <v>24954.6563307059</v>
+        <v>24122.958278160062</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3605,7 +3602,7 @@
       </c>
       <c r="C38">
         <f>'Working Out'!C38</f>
-        <v>14091.653365434298</v>
+        <v>14063.185452902055</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3619,7 +3616,7 @@
       </c>
       <c r="C39">
         <f>'Working Out'!C39</f>
-        <v>30219.38193800786</v>
+        <v>28722.282377307893</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3647,7 +3644,7 @@
       </c>
       <c r="C41">
         <f>'Working Out'!C41</f>
-        <v>60.93324677558072</v>
+        <v>59.263883971473689</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3661,7 +3658,7 @@
       </c>
       <c r="C42">
         <f>'Working Out'!C42</f>
-        <v>895.70385173293903</v>
+        <v>935.55392882101103</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3675,7 +3672,7 @@
       </c>
       <c r="C43">
         <f>'Working Out'!C43</f>
-        <v>2437.826076868796</v>
+        <v>2355.44966903881</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,7 +3700,7 @@
       </c>
       <c r="C45">
         <f>'Working Out'!C45</f>
-        <v>853.86957673520146</v>
+        <v>873.61926755698801</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3717,7 +3714,7 @@
       </c>
       <c r="C46">
         <f>'Working Out'!C46</f>
-        <v>4578.6809905426071</v>
+        <v>5239.9746043659452</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3731,7 +3728,7 @@
       </c>
       <c r="C47">
         <f>'Working Out'!C47</f>
-        <v>845.39852171455186</v>
+        <v>757.20375649635287</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3745,7 +3742,7 @@
       </c>
       <c r="C48">
         <f>'Working Out'!C48</f>
-        <v>227.33523256795777</v>
+        <v>241.11632141442743</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3759,7 +3756,7 @@
       </c>
       <c r="C49">
         <f>'Working Out'!C49</f>
-        <v>28.201536535983525</v>
+        <v>16.021582286988252</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3801,7 +3798,7 @@
       </c>
       <c r="C52">
         <f>'Working Out'!C52</f>
-        <v>79.380273003241854</v>
+        <v>98.132461902953565</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3815,7 +3812,7 @@
       </c>
       <c r="C53">
         <f>'Working Out'!C53</f>
-        <v>151.39981736084357</v>
+        <v>160.10730182375826</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3829,7 +3826,7 @@
       </c>
       <c r="C54">
         <f>'Working Out'!C54</f>
-        <v>68.122607640065851</v>
+        <v>92.185039969441235</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3843,7 +3840,7 @@
       </c>
       <c r="C55">
         <f>'Working Out'!C55</f>
-        <v>120.93006268598701</v>
+        <v>86.643124076850185</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3857,7 +3854,7 @@
       </c>
       <c r="C56">
         <f>'Working Out'!C56</f>
-        <v>624.70011117190791</v>
+        <v>544.66443420107191</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3871,7 +3868,7 @@
       </c>
       <c r="C57">
         <f>'Working Out'!C57</f>
-        <v>5786.0209006781306</v>
+        <v>5034.0136633455586</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3997,7 +3994,7 @@
       </c>
       <c r="C66">
         <f>'Working Out'!C66</f>
-        <v>5786.0209006781306</v>
+        <v>5034.0136633455586</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4025,7 +4022,7 @@
       </c>
       <c r="C68">
         <f>'Working Out'!C68</f>
-        <v>119.63693035253721</v>
+        <v>99.635167669819978</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4039,7 +4036,7 @@
       </c>
       <c r="C69">
         <f>'Working Out'!C69</f>
-        <v>1226.1036973344865</v>
+        <v>1261.8843508168598</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4053,7 +4050,7 @@
       </c>
       <c r="C70">
         <f>'Working Out'!C70</f>
-        <v>4185.5311999527758</v>
+        <v>4147.5834302083695</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4081,7 +4078,7 @@
       </c>
       <c r="C72">
         <f>'Working Out'!C72</f>
-        <v>730.47154133671813</v>
+        <v>714.94006808840356</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4095,7 +4092,7 @@
       </c>
       <c r="C73">
         <f>'Working Out'!C73</f>
-        <v>1090.4646125001088</v>
+        <v>1059.1373970396792</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4109,7 +4106,7 @@
       </c>
       <c r="C74">
         <f>'Working Out'!C74</f>
-        <v>37.716437475378008</v>
+        <v>38.348248213293964</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4123,7 +4120,7 @@
       </c>
       <c r="C75">
         <f>'Working Out'!C75</f>
-        <v>771.63008638802933</v>
+        <v>742.29336401676699</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4137,7 +4134,7 @@
       </c>
       <c r="C76">
         <f>'Working Out'!C76</f>
-        <v>455.85862543396365</v>
+        <v>430.6151697031857</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4165,7 +4162,7 @@
       </c>
       <c r="C78">
         <f>'Working Out'!C78</f>
-        <v>119.63693035253721</v>
+        <v>99.635167669819978</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -4193,7 +4190,7 @@
       </c>
       <c r="C80">
         <f>'Working Out'!C80</f>
-        <v>121.41584435849438</v>
+        <v>118.85195238779175</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -4207,7 +4204,7 @@
       </c>
       <c r="C81">
         <f>'Working Out'!C81</f>
-        <v>61.272933863648511</v>
+        <v>52.619899118795843</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -4221,7 +4218,7 @@
       </c>
       <c r="C82">
         <f>'Working Out'!C82</f>
-        <v>9.8974895872053352</v>
+        <v>9.4953201417375954</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -4235,7 +4232,7 @@
       </c>
       <c r="C83">
         <f>'Working Out'!C83</f>
-        <v>24.494109492182364</v>
+        <v>26.182287188306248</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -4277,7 +4274,7 @@
       </c>
       <c r="C86">
         <f>'Working Out'!C86</f>
-        <v>25.751311415458161</v>
+        <v>30.554445938952057</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -4333,17 +4330,17 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="24">
         <f>'Energy Balance 2017'!B5</f>
-        <v>507.44028852584307</v>
+        <v>401.93995414158786</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4351,17 +4348,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="24">
         <f>'Energy Balance 2017'!B6</f>
-        <v>8.7004155918601298E-6</v>
+        <v>3.3916809974204643E-5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3">
         <f>J2+1</f>
@@ -4377,7 +4374,7 @@
       </c>
       <c r="C4" s="24">
         <f>-'Energy Balance 2017'!B9</f>
-        <v>365.33074165217158</v>
+        <v>275.65451944274798</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
@@ -4408,7 +4405,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -4418,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -4453,7 +4450,7 @@
       </c>
       <c r="C8" s="24">
         <f>'Energy Balance 2017'!B25</f>
-        <v>93.280083568398254</v>
+        <v>80.37196056133088</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>8</v>
@@ -4472,7 +4469,7 @@
       </c>
       <c r="C9" s="24">
         <f>'Energy Balance 2017'!B26</f>
-        <v>45.931319073176653</v>
+        <v>43.430782459157591</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>9</v>
@@ -4491,7 +4488,7 @@
       </c>
       <c r="C10" s="24">
         <f>'Energy Balance 2017'!B27</f>
-        <v>0.32053293805785971</v>
+        <v>0.36113499570077584</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -4510,7 +4507,7 @@
       </c>
       <c r="C11" s="24">
         <f>'Energy Balance 2017'!B28</f>
-        <v>2.5776199944543379</v>
+        <v>2.1129921471820268</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -4525,14 +4522,14 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="24">
         <f>C7</f>
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
@@ -4544,11 +4541,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="24">
         <f>C8</f>
-        <v>93.280083568398254</v>
+        <v>80.37196056133088</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>5</v>
@@ -4563,14 +4560,14 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="24">
         <f>C9</f>
-        <v>45.931319073176653</v>
+        <v>43.430782459157591</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -4582,14 +4579,14 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="24">
         <f>C10</f>
-        <v>0.32053293805785971</v>
+        <v>0.36113499570077584</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -4601,14 +4598,14 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="24">
         <f>C11</f>
-        <v>2.5776199944543379</v>
+        <v>2.1129921471820268</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -4617,14 +4614,14 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="24">
         <f>'Energy Balance 2017'!C5</f>
-        <v>48589.840699024528</v>
+        <v>52926.146686182503</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>13</v>
@@ -4636,14 +4633,14 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="24">
         <f>'Energy Balance 2017'!C6</f>
-        <v>5377.4142107157004</v>
+        <v>6090.2525177746411</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>15</v>
@@ -4655,17 +4652,17 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="24">
         <f>-'Energy Balance 2017'!C9</f>
-        <v>42065.105302522512</v>
+        <v>47955.704136857777</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
@@ -4677,14 +4674,14 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="24">
         <f>'Energy Balance 2017'!C12</f>
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -4693,17 +4690,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C21" s="24">
         <f>'Energy Balance 2017'!C13</f>
-        <v>51.437059283466994</v>
+        <v>44.849882055171939</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
@@ -4712,7 +4709,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
@@ -4722,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
@@ -4731,7 +4728,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
@@ -4741,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
@@ -4750,7 +4747,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>9</v>
@@ -4769,7 +4766,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
@@ -4788,7 +4785,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
@@ -4798,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
@@ -4810,7 +4807,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="24">
         <f>C22</f>
@@ -4822,7 +4819,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="24">
         <f>C23</f>
@@ -4834,7 +4831,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="24">
         <f>C24</f>
@@ -4846,7 +4843,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="24">
         <f>C25</f>
@@ -4858,7 +4855,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="24">
         <f>C26</f>
@@ -4867,31 +4864,31 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C32" s="24">
         <f>-'Energy Balance 2017'!C17</f>
-        <v>2559.5052509966904</v>
+        <v>1930.4810265331166</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="24">
         <f>-'Energy Balance 2017'!C18</f>
-        <v>9394.0673816871295</v>
+        <v>9175.0639226214207</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
@@ -4903,14 +4900,14 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="24">
         <f>'Energy Balance 2017'!D6</f>
-        <v>2967.9976667947853</v>
+        <v>3176.6055366253076</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4922,7 +4919,7 @@
       </c>
       <c r="C36" s="24">
         <f>-'Energy Balance 2017'!D9</f>
-        <v>6710.5260209438939</v>
+        <v>5979.4983924660055</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -4930,23 +4927,23 @@
         <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="24">
         <f>-'Energy Balance 2017'!D12</f>
-        <v>972.4461777555448</v>
+        <v>1002.590149267652</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="24">
         <f>-'Energy Balance 2017'!D13</f>
-        <v>19.073019937128301</v>
+        <v>-44.719879280166758</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4958,7 +4955,7 @@
       </c>
       <c r="C39" s="24">
         <f>'Energy Balance 2017'!D24</f>
-        <v>1038.9119930141237</v>
+        <v>1125.2647513822537</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4970,7 +4967,7 @@
       </c>
       <c r="C40" s="24">
         <f>'Energy Balance 2017'!D25</f>
-        <v>357.81481657388258</v>
+        <v>177.56837512603184</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4982,7 +4979,7 @@
       </c>
       <c r="C41" s="24">
         <f>'Energy Balance 2017'!D26</f>
-        <v>263.24567172082999</v>
+        <v>263.14447083901541</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4994,7 +4991,7 @@
       </c>
       <c r="C42" s="24">
         <f>'Energy Balance 2017'!D27</f>
-        <v>4376.0488430404521</v>
+        <v>4449.0157472838027</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -5006,7 +5003,7 @@
       </c>
       <c r="C43" s="24">
         <f>'Energy Balance 2017'!D28</f>
-        <v>268.09599756874275</v>
+        <v>512.53222676050734</v>
       </c>
       <c r="I43" s="1"/>
     </row>
@@ -5015,11 +5012,11 @@
         <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="24">
         <f>C39</f>
-        <v>1038.9119930141237</v>
+        <v>1125.2647513822537</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -5028,11 +5025,11 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="24">
         <f>C40</f>
-        <v>357.81481657388258</v>
+        <v>177.56837512603184</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -5040,11 +5037,11 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="24">
         <f>C41</f>
-        <v>263.24567172082999</v>
+        <v>263.14447083901541</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5052,11 +5049,11 @@
         <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="24">
         <f>C42</f>
-        <v>4376.0488430404521</v>
+        <v>4449.0157472838027</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5064,35 +5061,35 @@
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="24">
         <f>C43</f>
-        <v>268.09599756874275</v>
+        <v>512.53222676050734</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="24">
         <f>'Energy Balance 2017'!D17</f>
-        <v>2559.5052509966904</v>
+        <v>1930.4810265331166</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="24">
         <f>'Energy Balance 2017'!D18</f>
-        <v>9071.6297832178334</v>
+        <v>8940.7948701448513</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,43 +5101,43 @@
       </c>
       <c r="C51" s="5">
         <f>'Energy Balance 2017'!D22</f>
-        <v>592.27299800725962</v>
+        <v>581.86315444322327</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="5">
         <f>'Energy Balance 2017'!E5</f>
-        <v>24954.6563307059</v>
+        <v>24122.958278160062</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="5">
         <f>'Energy Balance 2017'!E6</f>
-        <v>14091.653365434298</v>
+        <v>14063.185452902055</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="24">
         <f>-'Energy Balance 2017'!E9</f>
-        <v>30219.38193800786</v>
+        <v>28722.282377307893</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5148,7 +5145,7 @@
         <v>14</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="24">
         <f>'Energy Balance 2017'!E12</f>
@@ -5157,10 +5154,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="5">
         <f>'Energy Balance 2017'!E13</f>
@@ -5169,43 +5166,43 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="24">
         <f>'Energy Balance 2017'!E24</f>
-        <v>60.93324677558072</v>
+        <v>59.263883971473689</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="5">
         <f>'Energy Balance 2017'!E25</f>
-        <v>895.70385173293903</v>
+        <v>935.55392882101103</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="24">
         <f>'Energy Balance 2017'!E26</f>
-        <v>2437.826076868796</v>
+        <v>2355.44966903881</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
@@ -5217,14 +5214,14 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="24">
         <f>'Energy Balance 2017'!E28</f>
-        <v>853.86957673520146</v>
+        <v>873.61926755698801</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5232,11 +5229,11 @@
         <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" s="24">
         <f>C57</f>
-        <v>60.93324677558072</v>
+        <v>59.263883971473689</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5244,11 +5241,11 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" s="24">
         <f>C58</f>
-        <v>895.70385173293903</v>
+        <v>935.55392882101103</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5256,11 +5253,11 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C64" s="24">
         <f>C59</f>
-        <v>2437.826076868796</v>
+        <v>2355.44966903881</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5268,7 +5265,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C65" s="24">
         <f t="shared" ref="C65" si="1">C60</f>
@@ -5280,19 +5277,19 @@
         <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" s="24">
         <f>C61</f>
-        <v>853.86957673520146</v>
+        <v>873.61926755698801</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="24">
         <f>'Energy Balance 2017'!E17</f>
@@ -5301,62 +5298,62 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" s="24">
         <f>-'Energy Balance 2017'!E18</f>
-        <v>962.87537035222795</v>
+        <v>1478.3858772496594</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="24">
         <f>'Energy Balance 2017'!E22</f>
-        <v>3615.8056201903792</v>
+        <v>3761.5887271162856</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="5">
         <f>'Energy Balance 2017'!F5</f>
-        <v>845.39852171455186</v>
+        <v>757.20375649635287</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" s="5">
         <f>'Energy Balance 2017'!F6</f>
-        <v>227.33523256795777</v>
+        <v>241.11632141442743</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="24">
         <f>-'Energy Balance 2017'!F9</f>
-        <v>28.201536535983525</v>
+        <v>16.021582286988252</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -5364,7 +5361,7 @@
         <v>14</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="24">
         <f>'Energy Balance 2017'!F12</f>
@@ -5373,10 +5370,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C74" s="5">
         <f>'Energy Balance 2017'!F13</f>
@@ -5385,7 +5382,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>7</v>
@@ -5397,50 +5394,50 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="5">
         <f>'Energy Balance 2017'!F25</f>
-        <v>79.380273003241854</v>
+        <v>98.132461902953565</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="24">
         <f>'Energy Balance 2017'!F26</f>
-        <v>151.39981736084357</v>
+        <v>160.10730182375826</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="24">
         <f>'Energy Balance 2017'!F27</f>
-        <v>68.122607640065851</v>
+        <v>92.185039969441235</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="24">
         <f>'Energy Balance 2017'!F28</f>
-        <v>120.93006268598701</v>
+        <v>86.643124076850185</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5448,7 +5445,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C80" s="24">
         <f>C75</f>
@@ -5460,11 +5457,11 @@
         <v>8</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C81" s="24">
         <f>C76</f>
-        <v>79.380273003241854</v>
+        <v>98.132461902953565</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -5472,11 +5469,11 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C82" s="24">
         <f>C77</f>
-        <v>151.39981736084357</v>
+        <v>160.10730182375826</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -5484,11 +5481,11 @@
         <v>10</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C83" s="24">
         <f>C78</f>
-        <v>68.122607640065851</v>
+        <v>92.185039969441235</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5496,19 +5493,19 @@
         <v>11</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C84" s="24">
         <f>C79</f>
-        <v>120.93006268598701</v>
+        <v>86.643124076850185</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" s="24">
         <f>'Energy Balance 2017'!F17</f>
@@ -5517,19 +5514,19 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C86" s="24">
         <f>-'Energy Balance 2017'!F18</f>
-        <v>624.70011117190791</v>
+        <v>544.66443420107191</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>15</v>
@@ -5541,19 +5538,19 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="5">
         <f>'Energy Balance 2017'!G5</f>
-        <v>5786.0209006781306</v>
+        <v>5034.0136633455586</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>16</v>
@@ -5589,7 +5586,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>16</v>
@@ -5664,7 +5661,7 @@
         <v>7</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C98" s="24">
         <f>C93</f>
@@ -5676,7 +5673,7 @@
         <v>8</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C99" s="24">
         <f t="shared" ref="C99:C102" si="2">C94</f>
@@ -5688,7 +5685,7 @@
         <v>9</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C100" s="24">
         <f t="shared" si="2"/>
@@ -5700,7 +5697,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C101" s="24">
         <f t="shared" si="2"/>
@@ -5712,7 +5709,7 @@
         <v>11</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C102" s="24">
         <f t="shared" si="2"/>
@@ -5724,11 +5721,11 @@
         <v>16</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C103" s="24">
         <f>-'Energy Balance 2017'!G17</f>
-        <v>1952.9624355017334</v>
+        <v>2092.7724080189364</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -5736,11 +5733,11 @@
         <v>16</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C104" s="24">
         <f>-'Energy Balance 2017'!G18</f>
-        <v>3833.0584651763975</v>
+        <v>2941.2412553266217</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -5757,7 +5754,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>17</v>
@@ -5769,14 +5766,14 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="5">
         <f>'Energy Balance 2017'!H6</f>
-        <v>119.63693035253721</v>
+        <v>99.635167669819978</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5788,7 +5785,7 @@
       </c>
       <c r="C108" s="5">
         <f>-'Energy Balance 2017'!H9</f>
-        <v>1226.1036973344865</v>
+        <v>1261.8843508168598</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -5805,7 +5802,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>17</v>
@@ -5836,7 +5833,7 @@
       </c>
       <c r="C112" s="5">
         <f>'Energy Balance 2017'!H25</f>
-        <v>730.47154133671813</v>
+        <v>714.94006808840356</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -5848,7 +5845,7 @@
       </c>
       <c r="C113" s="5">
         <f>'Energy Balance 2017'!H26</f>
-        <v>1090.4646125001088</v>
+        <v>1059.1373970396792</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -5860,7 +5857,7 @@
       </c>
       <c r="C114" s="5">
         <f>'Energy Balance 2017'!H27</f>
-        <v>37.716437475378008</v>
+        <v>38.348248213293964</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5872,7 +5869,7 @@
       </c>
       <c r="C115" s="5">
         <f>'Energy Balance 2017'!H28</f>
-        <v>771.63008638802933</v>
+        <v>742.29336401676699</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5880,7 +5877,7 @@
         <v>7</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C116" s="5">
         <f>C111</f>
@@ -5892,11 +5889,11 @@
         <v>8</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C117" s="5">
         <f>C112</f>
-        <v>730.47154133671813</v>
+        <v>714.94006808840356</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -5904,11 +5901,11 @@
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C118" s="5">
         <f>C113</f>
-        <v>1090.4646125001088</v>
+        <v>1059.1373970396792</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -5916,11 +5913,11 @@
         <v>10</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C119" s="5">
         <f>C114</f>
-        <v>37.716437475378008</v>
+        <v>38.348248213293964</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -5928,35 +5925,35 @@
         <v>11</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C120" s="5">
         <f>C115</f>
-        <v>771.63008638802933</v>
+        <v>742.29336401676699</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C121" s="5">
         <f>'Energy Balance 2017'!H17</f>
-        <v>1952.9624355017334</v>
+        <v>2092.7724080189364</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C122" s="5">
         <f>'Energy Balance 2017'!H18</f>
-        <v>2232.5687644510422</v>
+        <v>2054.8110221894326</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -5968,15 +5965,15 @@
       </c>
       <c r="C123" s="5">
         <f>'Energy Balance 2017'!H22</f>
-        <v>455.85862543396365</v>
+        <v>430.6151697031857</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C124" s="5">
         <f>'Energy Balance 2017'!H5</f>
@@ -5985,19 +5982,19 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B125" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C125" s="5">
         <f>'Energy Balance 2017'!H6</f>
-        <v>119.63693035253721</v>
+        <v>99.635167669819978</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -6012,7 +6009,7 @@
         <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C127" s="5">
         <f>'Energy Balance 2017'!I12</f>
@@ -6021,10 +6018,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C128" s="5">
         <f>'Energy Balance 2017'!I13</f>
@@ -6033,43 +6030,43 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="5">
         <f>'Energy Balance 2017'!I24</f>
-        <v>61.272933863648511</v>
+        <v>52.619899118795843</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="5">
         <f>'Energy Balance 2017'!I25</f>
-        <v>9.8974895872053352</v>
+        <v>9.4953201417375954</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B131" t="s">
         <v>9</v>
       </c>
       <c r="C131" s="5">
         <f>'Energy Balance 2017'!I26</f>
-        <v>24.494109492182364</v>
+        <v>26.182287188306248</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -6081,7 +6078,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -6096,11 +6093,11 @@
         <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C134" s="5">
         <f>C129</f>
-        <v>61.272933863648511</v>
+        <v>52.619899118795843</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -6108,11 +6105,11 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C135" s="5">
         <f>C130</f>
-        <v>9.8974895872053352</v>
+        <v>9.4953201417375954</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -6120,11 +6117,11 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C136" s="5">
         <f>C131</f>
-        <v>24.494109492182364</v>
+        <v>26.182287188306248</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -6132,7 +6129,7 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C137" s="5">
         <f t="shared" ref="C137:C138" si="3">C132</f>
@@ -6144,7 +6141,7 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C138" s="5">
         <f t="shared" si="3"/>
@@ -6153,10 +6150,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B139" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C139" s="5">
         <f>'Energy Balance 2017'!I17</f>
@@ -6165,26 +6162,26 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B140" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C140" s="5">
         <f>'Energy Balance 2017'!I18</f>
-        <v>121.41584435849438</v>
+        <v>118.85195238779175</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
       </c>
       <c r="C141" s="5">
         <f>'Energy Balance 2017'!I22</f>
-        <v>25.751311415458161</v>
+        <v>30.554445938952057</v>
       </c>
     </row>
   </sheetData>

--- a/Structure/1 - Whole System/EnBalance.xlsx
+++ b/Structure/1 - Whole System/EnBalance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\SESH\Structure\1 - Whole System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7B0059-A076-46E2-8382-CCF021BA1960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{7B7B0059-A076-46E2-8382-CCF021BA1960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{562DD5C4-1821-4555-9059-0EF9BC74838F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working Out" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Working Out'!$A$1:$C$136</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="63">
   <si>
     <t>Source</t>
   </si>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>TTL*</t>
+  </si>
+  <si>
+    <t>Transfers &amp; transformation In</t>
+  </si>
+  <si>
+    <t>Non-energy use</t>
+  </si>
+  <si>
+    <t>Final consumption</t>
+  </si>
+  <si>
+    <t>Manufactured fuels</t>
   </si>
 </sst>
 </file>
@@ -737,17 +749,17 @@
   <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -776,13 +788,13 @@
         <v>401.93995414158786</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -801,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -820,7 +832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -839,7 +851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -851,14 +863,14 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -870,14 +882,14 @@
         <v>80.37196056133088</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -896,7 +908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -915,7 +927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -934,7 +946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -953,7 +965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -965,14 +977,14 @@
         <v>2016.0621146414685</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1003,14 +1015,14 @@
         <v>4579.910170462239</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1041,14 +1053,14 @@
         <v>52926.146686182503</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1060,14 +1072,14 @@
         <v>6090.2525177746411</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -1079,14 +1091,14 @@
         <v>47955.704136857777</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
@@ -1117,14 +1129,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -1160,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1184,7 +1196,7 @@
         <v>11105.544949154537</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -1208,7 +1220,7 @@
         <v>3176.6055366253076</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -1220,7 +1232,7 @@
         <v>5979.4983924660055</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>1002.590149267652</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>10826.556017397801</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>1125.2647513822537</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -1268,7 +1280,7 @@
         <v>177.56837512603184</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -1280,7 +1292,7 @@
         <v>263.14447083901541</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1304,7 @@
         <v>4449.0157472838027</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1304,7 +1316,7 @@
         <v>512.53222676050734</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1316,7 +1328,7 @@
         <v>584.11124447312568</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1328,7 +1340,7 @@
         <v>24122.958278160062</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1340,7 +1352,7 @@
         <v>14063.185452902055</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>53</v>
       </c>
@@ -1352,7 +1364,7 @@
         <v>28722.282377307893</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>59.263883971473689</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>53</v>
       </c>
@@ -1388,7 +1400,7 @@
         <v>935.55392882101103</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
@@ -1401,7 +1413,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
@@ -1414,7 +1426,7 @@
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -1426,7 +1438,7 @@
         <v>873.61926755698801</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>53</v>
       </c>
@@ -1438,7 +1450,7 @@
         <v>5239.9746043659452</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1450,7 +1462,7 @@
         <v>757.20375649635287</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1462,7 +1474,7 @@
         <v>241.11632141442743</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
@@ -1474,7 +1486,7 @@
         <v>16.021582286988252</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -1486,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
@@ -1498,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>98.132461902953565</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>55</v>
       </c>
@@ -1522,7 +1534,7 @@
         <v>160.10730182375826</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
@@ -1534,7 +1546,7 @@
         <v>92.185039969441235</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>86.643124076850185</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
@@ -1558,7 +1570,7 @@
         <v>544.66443420107191</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
@@ -1570,7 +1582,7 @@
         <v>5034.0136633455586</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>46</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>16</v>
       </c>
@@ -1594,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -1606,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>16</v>
       </c>
@@ -1630,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
@@ -1642,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>16</v>
       </c>
@@ -1654,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>16</v>
       </c>
@@ -1666,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>16</v>
       </c>
@@ -1678,7 +1690,7 @@
         <v>5034.0136633455586</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>45</v>
       </c>
@@ -1690,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>99.635167669819978</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
@@ -1714,7 +1726,7 @@
         <v>1261.8843508168598</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>57</v>
       </c>
@@ -1726,7 +1738,7 @@
         <v>4147.5834302083695</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
@@ -1738,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>714.94006808840356</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1774,7 @@
         <v>1059.1373970396792</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
@@ -1774,7 +1786,7 @@
         <v>38.348248213293964</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>17</v>
       </c>
@@ -1786,7 +1798,7 @@
         <v>742.29336401676699</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>430.6151697031857</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -1810,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>46</v>
       </c>
@@ -1822,7 +1834,7 @@
         <v>99.635167669819978</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -1834,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -1846,7 +1858,7 @@
         <v>118.85195238779175</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -1858,7 +1870,7 @@
         <v>52.619899118795843</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>56</v>
       </c>
@@ -1870,7 +1882,7 @@
         <v>9.4953201417375954</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>56</v>
       </c>
@@ -1882,7 +1894,7 @@
         <v>26.182287188306248</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -1894,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>56</v>
       </c>
@@ -1906,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>56</v>
       </c>
@@ -1918,7 +1930,7 @@
         <v>30.554445938952057</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -1929,55 +1941,55 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="24"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="24"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="24"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="24"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="24"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="24"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C133" s="5"/>
     </row>
   </sheetData>
@@ -1990,19 +2002,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="4" customWidth="1"/>
-    <col min="2" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7265625" style="4" customWidth="1"/>
+    <col min="2" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
@@ -2016,7 +2028,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -2036,7 +2048,7 @@
       </c>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -2066,7 +2078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
@@ -2080,7 +2092,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>29</v>
       </c>
@@ -2112,7 +2124,7 @@
         <v>83242.262338326065</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
@@ -2144,7 +2156,7 @@
         <v>23670.795030303067</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
@@ -2176,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>33</v>
       </c>
@@ -2240,7 +2252,7 @@
         <v>-84211.045359178286</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>31</v>
       </c>
@@ -2272,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>32</v>
       </c>
@@ -2304,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>-1002.590149267652</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
@@ -2368,7 +2380,7 @@
         <v>89.569761335338697</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>21788.425487868826</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>-1.1240450149512071</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -2464,7 +2476,7 @@
         <v>21787.301442853874</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
@@ -2496,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
@@ -2528,7 +2540,7 @@
         <v>-3024.8976446766983</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>40</v>
       </c>
@@ -2560,7 +2572,7 @@
         <v>-2838.2554335977607</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
@@ -2592,7 +2604,7 @@
         <v>-49.742369624851563</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>42</v>
       </c>
@@ -2624,7 +2636,7 @@
         <v>-136.89984145408604</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>43</v>
       </c>
@@ -2656,7 +2668,7 @@
         <v>4804.6214972016469</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -2688,7 +2700,7 @@
         <v>13957.78230097553</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>7</v>
       </c>
@@ -2720,7 +2732,7 @@
         <v>1237.1485344725234</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>8</v>
       </c>
@@ -2752,7 +2764,7 @@
         <v>2016.0621146414685</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -2784,7 +2796,7 @@
         <v>3907.4519083887267</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>10</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>4579.910170462239</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>11</v>
       </c>
@@ -2857,13 +2869,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="A21:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2871,17 +2883,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'Working Out'!J2</f>
         <v>0</v>
       </c>
       <c r="B2" t="str">
         <f>'Working Out'!I2</f>
-        <v>Indigenous Production</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Indigenous production</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>'Working Out'!J3</f>
         <v>1</v>
@@ -2891,7 +2903,7 @@
         <v>Imports</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>'Working Out'!J4</f>
         <v>2</v>
@@ -2901,7 +2913,7 @@
         <v>Exports</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>'Working Out'!J5</f>
         <v>3</v>
@@ -2911,27 +2923,27 @@
         <v>TTL*</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>'Working Out'!J6</f>
         <v>4</v>
       </c>
       <c r="B6" t="str">
         <f>'Working Out'!I6</f>
-        <v>Transfers &amp; Transformation In</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Transfers &amp; transformation In</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>'Working Out'!J7</f>
         <v>5</v>
       </c>
       <c r="B7" t="str">
         <f>'Working Out'!I7</f>
-        <v>Non-Energy Use</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Non-energy use</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>'Working Out'!J8</f>
         <v>6</v>
@@ -2941,7 +2953,7 @@
         <v>Industry</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>'Working Out'!J9</f>
         <v>7</v>
@@ -2951,7 +2963,7 @@
         <v>Domestic</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>'Working Out'!J10</f>
         <v>8</v>
@@ -2961,7 +2973,7 @@
         <v>Transport</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>'Working Out'!J11</f>
         <v>9</v>
@@ -2971,17 +2983,17 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>'Working Out'!J12</f>
         <v>10</v>
       </c>
       <c r="B12" t="str">
         <f>'Working Out'!I12</f>
-        <v>Final Consumption</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Final consumption</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>'Working Out'!J13</f>
         <v>11</v>
@@ -2991,17 +3003,17 @@
         <v>Coal</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>'Working Out'!J14</f>
         <v>12</v>
       </c>
       <c r="B14" t="str">
         <f>'Working Out'!I14</f>
-        <v>Primary Oils</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Primary oils</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>'Working Out'!J15</f>
         <v>13</v>
@@ -3011,37 +3023,37 @@
         <v>Petrol</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>'Working Out'!J16</f>
         <v>14</v>
       </c>
       <c r="B16" t="str">
         <f>'Working Out'!I16</f>
-        <v>Natural Gas</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Natural gas</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>'Working Out'!J17</f>
         <v>15</v>
       </c>
       <c r="B17" t="str">
         <f>'Working Out'!I17</f>
-        <v>Bioenergy &amp; Wastes</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Bioenergy &amp; wastes</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>'Working Out'!J18</f>
         <v>16</v>
       </c>
       <c r="B18" t="str">
         <f>'Working Out'!I18</f>
-        <v>Primary Electricity</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>Primary electricity</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>'Working Out'!J19</f>
         <v>17</v>
@@ -3051,14 +3063,14 @@
         <v>Electricity</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>'Working Out'!J20</f>
         <v>18</v>
       </c>
       <c r="B20" t="str">
         <f>'Working Out'!I20</f>
-        <v>Manufactured Fuels</v>
+        <v>Manufactured fuels</v>
       </c>
     </row>
   </sheetData>
@@ -3074,9 +3086,9 @@
       <selection activeCell="A88" sqref="A88:C166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3087,7 +3099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>VLOOKUP('Working Out'!A2,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3101,7 +3113,7 @@
         <v>401.93995414158786</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>VLOOKUP('Working Out'!A3,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3115,7 +3127,7 @@
         <v>3.3916809974204643E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>VLOOKUP('Working Out'!A4,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3129,7 +3141,7 @@
         <v>275.65451944274798</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>VLOOKUP('Working Out'!A5,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3143,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>VLOOKUP('Working Out'!A6,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3157,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>VLOOKUP('Working Out'!A7,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3171,7 +3183,7 @@
         <v>80.37196056133088</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>VLOOKUP('Working Out'!A8,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3185,7 +3197,7 @@
         <v>43.430782459157591</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>VLOOKUP('Working Out'!A9,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3199,7 +3211,7 @@
         <v>0.36113499570077584</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>VLOOKUP('Working Out'!A10,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3213,7 +3225,7 @@
         <v>2.1129921471820268</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>VLOOKUP('Working Out'!A11,'Working Out'!$I:$J,2,0)</f>
         <v>5</v>
@@ -3227,7 +3239,7 @@
         <v>1237.1485344725234</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>VLOOKUP('Working Out'!A12,'Working Out'!$I:$J,2,0)</f>
         <v>6</v>
@@ -3241,7 +3253,7 @@
         <v>2016.0621146414685</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>VLOOKUP('Working Out'!A13,'Working Out'!$I:$J,2,0)</f>
         <v>7</v>
@@ -3255,7 +3267,7 @@
         <v>3907.4519083887267</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>VLOOKUP('Working Out'!A14,'Working Out'!$I:$J,2,0)</f>
         <v>8</v>
@@ -3269,7 +3281,7 @@
         <v>4579.910170462239</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>VLOOKUP('Working Out'!A15,'Working Out'!$I:$J,2,0)</f>
         <v>9</v>
@@ -3283,7 +3295,7 @@
         <v>2217.2009745582945</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>VLOOKUP('Working Out'!A16,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3297,7 +3309,7 @@
         <v>52926.146686182503</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>VLOOKUP('Working Out'!A17,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3311,7 +3323,7 @@
         <v>6090.2525177746411</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>VLOOKUP('Working Out'!A18,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3325,7 +3337,7 @@
         <v>47955.704136857777</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>VLOOKUP('Working Out'!A19,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3339,7 +3351,7 @@
         <v>44.849882055171939</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>VLOOKUP('Working Out'!A20,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3353,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>VLOOKUP('Working Out'!A21,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3367,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>VLOOKUP('Working Out'!A22,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3381,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>VLOOKUP('Working Out'!A23,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3395,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>VLOOKUP('Working Out'!A24,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3409,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <f>VLOOKUP('Working Out'!A25,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3423,7 +3435,7 @@
         <v>11105.544949154537</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <f>VLOOKUP('Working Out'!A26,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3437,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <f>VLOOKUP('Working Out'!A27,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3451,7 +3463,7 @@
         <v>3176.6055366253076</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>VLOOKUP('Working Out'!A28,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3465,7 +3477,7 @@
         <v>5979.4983924660055</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <f>VLOOKUP('Working Out'!A29,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3479,7 +3491,7 @@
         <v>1002.590149267652</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <f>VLOOKUP('Working Out'!A30,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3493,7 +3505,7 @@
         <v>10826.556017397801</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <f>VLOOKUP('Working Out'!A31,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3507,7 +3519,7 @@
         <v>1125.2647513822537</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <f>VLOOKUP('Working Out'!A32,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3521,7 +3533,7 @@
         <v>177.56837512603184</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <f>VLOOKUP('Working Out'!A33,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3535,7 +3547,7 @@
         <v>263.14447083901541</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>VLOOKUP('Working Out'!A34,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3549,7 +3561,7 @@
         <v>4449.0157472838027</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>VLOOKUP('Working Out'!A35,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3563,7 +3575,7 @@
         <v>512.53222676050734</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <f>VLOOKUP('Working Out'!A36,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3577,7 +3589,7 @@
         <v>584.11124447312568</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>VLOOKUP('Working Out'!A37,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3591,7 +3603,7 @@
         <v>24122.958278160062</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>VLOOKUP('Working Out'!A38,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3605,7 +3617,7 @@
         <v>14063.185452902055</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>VLOOKUP('Working Out'!A39,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3619,7 +3631,7 @@
         <v>28722.282377307893</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <f>VLOOKUP('Working Out'!A40,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3633,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <f>VLOOKUP('Working Out'!A41,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3647,7 +3659,7 @@
         <v>59.263883971473689</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>VLOOKUP('Working Out'!A42,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3661,7 +3673,7 @@
         <v>935.55392882101103</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>VLOOKUP('Working Out'!A43,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3675,7 +3687,7 @@
         <v>2355.44966903881</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <f>VLOOKUP('Working Out'!A44,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3689,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <f>VLOOKUP('Working Out'!A45,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3703,7 +3715,7 @@
         <v>873.61926755698801</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <f>VLOOKUP('Working Out'!A46,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3717,7 +3729,7 @@
         <v>5239.9746043659452</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <f>VLOOKUP('Working Out'!A47,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3731,7 +3743,7 @@
         <v>757.20375649635287</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <f>VLOOKUP('Working Out'!A48,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3745,7 +3757,7 @@
         <v>241.11632141442743</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <f>VLOOKUP('Working Out'!A49,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3759,7 +3771,7 @@
         <v>16.021582286988252</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <f>VLOOKUP('Working Out'!A50,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3773,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <f>VLOOKUP('Working Out'!A51,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3787,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <f>VLOOKUP('Working Out'!A52,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3801,7 +3813,7 @@
         <v>98.132461902953565</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <f>VLOOKUP('Working Out'!A53,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3815,7 +3827,7 @@
         <v>160.10730182375826</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <f>VLOOKUP('Working Out'!A54,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3829,7 +3841,7 @@
         <v>92.185039969441235</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <f>VLOOKUP('Working Out'!A55,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3843,7 +3855,7 @@
         <v>86.643124076850185</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <f>VLOOKUP('Working Out'!A56,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3857,7 +3869,7 @@
         <v>544.66443420107191</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <f>VLOOKUP('Working Out'!A57,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3871,7 +3883,7 @@
         <v>5034.0136633455586</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <f>VLOOKUP('Working Out'!A58,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3885,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <f>VLOOKUP('Working Out'!A59,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3899,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <f>VLOOKUP('Working Out'!A60,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3913,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <f>VLOOKUP('Working Out'!A61,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3927,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <f>VLOOKUP('Working Out'!A62,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3941,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <f>VLOOKUP('Working Out'!A63,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3955,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <f>VLOOKUP('Working Out'!A64,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3969,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <f>VLOOKUP('Working Out'!A65,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3983,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <f>VLOOKUP('Working Out'!A66,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3997,7 +4009,7 @@
         <v>5034.0136633455586</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <f>VLOOKUP('Working Out'!A67,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -4011,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <f>VLOOKUP('Working Out'!A68,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -4025,7 +4037,7 @@
         <v>99.635167669819978</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <f>VLOOKUP('Working Out'!A69,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4039,7 +4051,7 @@
         <v>1261.8843508168598</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
         <f>VLOOKUP('Working Out'!A70,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -4053,7 +4065,7 @@
         <v>4147.5834302083695</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
         <f>VLOOKUP('Working Out'!A71,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4067,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
         <f>VLOOKUP('Working Out'!A72,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4081,7 +4093,7 @@
         <v>714.94006808840356</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
         <f>VLOOKUP('Working Out'!A73,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4095,7 +4107,7 @@
         <v>1059.1373970396792</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
         <f>VLOOKUP('Working Out'!A74,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4109,7 +4121,7 @@
         <v>38.348248213293964</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
         <f>VLOOKUP('Working Out'!A75,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4123,7 +4135,7 @@
         <v>742.29336401676699</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
         <f>VLOOKUP('Working Out'!A76,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4137,7 +4149,7 @@
         <v>430.6151697031857</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
         <f>VLOOKUP('Working Out'!A77,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -4151,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
         <f>VLOOKUP('Working Out'!A78,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -4165,7 +4177,7 @@
         <v>99.635167669819978</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
         <f>VLOOKUP('Working Out'!A79,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4179,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
         <f>VLOOKUP('Working Out'!A80,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -4193,7 +4205,7 @@
         <v>118.85195238779175</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
         <f>VLOOKUP('Working Out'!A81,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4207,7 +4219,7 @@
         <v>52.619899118795843</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
         <f>VLOOKUP('Working Out'!A82,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4221,7 +4233,7 @@
         <v>9.4953201417375954</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
         <f>VLOOKUP('Working Out'!A83,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4235,7 +4247,7 @@
         <v>26.182287188306248</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
         <f>VLOOKUP('Working Out'!A84,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4249,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85">
         <f>VLOOKUP('Working Out'!A85,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4263,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86">
         <f>VLOOKUP('Working Out'!A86,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4277,7 +4289,7 @@
         <v>30.554445938952057</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
         <f>VLOOKUP('Working Out'!A87,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -4304,14 +4316,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4328,7 +4340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -4346,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -4365,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -4384,7 +4396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -4403,7 +4415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -4422,7 +4434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -4441,7 +4453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4460,7 +4472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -4479,7 +4491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -4498,7 +4510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -4517,7 +4529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -4536,7 +4548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4555,7 +4567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -4574,7 +4586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -4593,7 +4605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4612,7 +4624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -4631,7 +4643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -4650,7 +4662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -4669,7 +4681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -4688,7 +4700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4707,7 +4719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -4726,7 +4738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -4745,7 +4757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -4764,7 +4776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -4783,7 +4795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
@@ -4802,7 +4814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -4814,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -4826,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -4838,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -4850,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -4862,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -4874,7 +4886,7 @@
         <v>1930.4810265331166</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -4886,7 +4898,7 @@
         <v>9175.0639226214207</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -4898,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4910,7 +4922,7 @@
         <v>3176.6055366253076</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
@@ -4922,7 +4934,7 @@
         <v>5979.4983924660055</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -4934,7 +4946,7 @@
         <v>1002.590149267652</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -4946,7 +4958,7 @@
         <v>-44.719879280166758</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
@@ -4958,7 +4970,7 @@
         <v>1125.2647513822537</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
@@ -4970,7 +4982,7 @@
         <v>177.56837512603184</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
@@ -4982,7 +4994,7 @@
         <v>263.14447083901541</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>13</v>
       </c>
@@ -4994,7 +5006,7 @@
         <v>4449.0157472838027</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
@@ -5007,7 +5019,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -5020,7 +5032,7 @@
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -5032,7 +5044,7 @@
         <v>177.56837512603184</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -5044,7 +5056,7 @@
         <v>263.14447083901541</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -5056,7 +5068,7 @@
         <v>4449.0157472838027</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -5068,7 +5080,7 @@
         <v>512.53222676050734</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -5080,7 +5092,7 @@
         <v>1930.4810265331166</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -5092,7 +5104,7 @@
         <v>8940.7948701448513</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -5104,7 +5116,7 @@
         <v>581.86315444322327</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
@@ -5116,7 +5128,7 @@
         <v>24122.958278160062</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
@@ -5128,7 +5140,7 @@
         <v>14063.185452902055</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -5140,7 +5152,7 @@
         <v>28722.282377307893</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -5152,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
@@ -5164,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>53</v>
       </c>
@@ -5176,7 +5188,7 @@
         <v>59.263883971473689</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>53</v>
       </c>
@@ -5188,7 +5200,7 @@
         <v>935.55392882101103</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -5200,7 +5212,7 @@
         <v>2355.44966903881</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>53</v>
       </c>
@@ -5212,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>53</v>
       </c>
@@ -5224,7 +5236,7 @@
         <v>873.61926755698801</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5236,7 +5248,7 @@
         <v>59.263883971473689</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -5248,7 +5260,7 @@
         <v>935.55392882101103</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -5260,7 +5272,7 @@
         <v>2355.44966903881</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -5272,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -5284,7 +5296,7 @@
         <v>873.61926755698801</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>51</v>
       </c>
@@ -5296,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>53</v>
       </c>
@@ -5308,7 +5320,7 @@
         <v>1478.3858772496594</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>53</v>
       </c>
@@ -5320,7 +5332,7 @@
         <v>3761.5887271162856</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>45</v>
       </c>
@@ -5332,7 +5344,7 @@
         <v>757.20375649635287</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
@@ -5344,7 +5356,7 @@
         <v>241.11632141442743</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>55</v>
       </c>
@@ -5356,7 +5368,7 @@
         <v>16.021582286988252</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
@@ -5368,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>47</v>
       </c>
@@ -5380,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>55</v>
       </c>
@@ -5392,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>55</v>
       </c>
@@ -5404,7 +5416,7 @@
         <v>98.132461902953565</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>55</v>
       </c>
@@ -5416,7 +5428,7 @@
         <v>160.10730182375826</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>55</v>
       </c>
@@ -5428,7 +5440,7 @@
         <v>92.185039969441235</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>55</v>
       </c>
@@ -5440,7 +5452,7 @@
         <v>86.643124076850185</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -5452,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -5464,7 +5476,7 @@
         <v>98.132461902953565</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
@@ -5476,7 +5488,7 @@
         <v>160.10730182375826</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -5488,7 +5500,7 @@
         <v>92.185039969441235</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
@@ -5500,7 +5512,7 @@
         <v>86.643124076850185</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>51</v>
       </c>
@@ -5512,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>55</v>
       </c>
@@ -5524,7 +5536,7 @@
         <v>544.66443420107191</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>55</v>
       </c>
@@ -5536,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>45</v>
       </c>
@@ -5548,7 +5560,7 @@
         <v>5034.0136633455586</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
@@ -5560,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>16</v>
       </c>
@@ -5572,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -5584,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
@@ -5596,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>16</v>
       </c>
@@ -5608,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>16</v>
       </c>
@@ -5620,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>16</v>
       </c>
@@ -5632,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>16</v>
       </c>
@@ -5644,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>16</v>
       </c>
@@ -5656,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -5668,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -5680,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -5692,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
@@ -5704,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -5716,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>16</v>
       </c>
@@ -5728,7 +5740,7 @@
         <v>2092.7724080189364</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>16</v>
       </c>
@@ -5740,7 +5752,7 @@
         <v>2941.2412553266217</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>16</v>
       </c>
@@ -5752,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>45</v>
       </c>
@@ -5764,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>46</v>
       </c>
@@ -5776,7 +5788,7 @@
         <v>99.635167669819978</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>17</v>
       </c>
@@ -5788,7 +5800,7 @@
         <v>1261.8843508168598</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>14</v>
       </c>
@@ -5800,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>47</v>
       </c>
@@ -5812,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>17</v>
       </c>
@@ -5824,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>17</v>
       </c>
@@ -5836,7 +5848,7 @@
         <v>714.94006808840356</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>17</v>
       </c>
@@ -5848,7 +5860,7 @@
         <v>1059.1373970396792</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>17</v>
       </c>
@@ -5860,7 +5872,7 @@
         <v>38.348248213293964</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>17</v>
       </c>
@@ -5872,7 +5884,7 @@
         <v>742.29336401676699</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -5884,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -5896,7 +5908,7 @@
         <v>714.94006808840356</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -5908,7 +5920,7 @@
         <v>1059.1373970396792</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
@@ -5920,7 +5932,7 @@
         <v>38.348248213293964</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
@@ -5932,7 +5944,7 @@
         <v>742.29336401676699</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>51</v>
       </c>
@@ -5944,7 +5956,7 @@
         <v>2092.7724080189364</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>52</v>
       </c>
@@ -5956,7 +5968,7 @@
         <v>2054.8110221894326</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>17</v>
       </c>
@@ -5968,7 +5980,7 @@
         <v>430.6151697031857</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>45</v>
       </c>
@@ -5980,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>46</v>
       </c>
@@ -5992,7 +6004,7 @@
         <v>99.635167669819978</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>56</v>
       </c>
@@ -6004,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -6016,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>47</v>
       </c>
@@ -6028,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>56</v>
       </c>
@@ -6040,7 +6052,7 @@
         <v>52.619899118795843</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>56</v>
       </c>
@@ -6052,7 +6064,7 @@
         <v>9.4953201417375954</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>56</v>
       </c>
@@ -6064,7 +6076,7 @@
         <v>26.182287188306248</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>56</v>
       </c>
@@ -6076,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>56</v>
       </c>
@@ -6088,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -6100,7 +6112,7 @@
         <v>52.619899118795843</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -6112,7 +6124,7 @@
         <v>9.4953201417375954</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -6124,7 +6136,7 @@
         <v>26.182287188306248</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -6136,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -6148,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>51</v>
       </c>
@@ -6160,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>52</v>
       </c>
@@ -6172,7 +6184,7 @@
         <v>118.85195238779175</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>56</v>
       </c>

--- a/Structure/1 - Whole System/EnBalance.xlsx
+++ b/Structure/1 - Whole System/EnBalance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{7B7B0059-A076-46E2-8382-CCF021BA1960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{562DD5C4-1821-4555-9059-0EF9BC74838F}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7B7B0059-A076-46E2-8382-CCF021BA1960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{061E47A0-AAD3-426C-9D65-C46AF3A53351}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5770" yWindow="11210" windowWidth="12080" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working Out" sheetId="3" r:id="rId1"/>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1830,8 +1830,8 @@
         <v>56</v>
       </c>
       <c r="C78" s="5">
-        <f>'Energy Balance 2017'!H6</f>
-        <v>99.635167669819978</v>
+        <f>'Energy Balance 2017'!I6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -2869,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C78">
         <f>'Working Out'!C78</f>
-        <v>99.635167669819978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">

--- a/Structure/1 - Whole System/EnBalance.xlsx
+++ b/Structure/1 - Whole System/EnBalance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\1 - Whole System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7B7B0059-A076-46E2-8382-CCF021BA1960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{061E47A0-AAD3-426C-9D65-C46AF3A53351}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D68022-84BC-48E8-98D3-57A12418A4C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5770" yWindow="11210" windowWidth="12080" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working Out" sheetId="3" r:id="rId1"/>
@@ -26,12 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -748,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
@@ -756,6 +750,7 @@
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
     <col min="9" max="9" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -785,7 +780,7 @@
       </c>
       <c r="C2" s="24">
         <f>'Energy Balance 2017'!B5</f>
-        <v>401.93995414158786</v>
+        <v>268.31704404318333</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>29</v>
@@ -803,7 +798,7 @@
       </c>
       <c r="C3" s="24">
         <f>'Energy Balance 2017'!B6</f>
-        <v>3.3916809974204643E-5</v>
+        <v>1.6522282889079966E-3</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>46</v>
@@ -822,7 +817,7 @@
       </c>
       <c r="C4" s="24">
         <f>-'Energy Balance 2017'!B9</f>
-        <v>275.65451944274798</v>
+        <v>146.75665254628672</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
@@ -879,7 +874,7 @@
       </c>
       <c r="C7" s="24">
         <f>'Energy Balance 2017'!B25</f>
-        <v>80.37196056133088</v>
+        <v>75.994609340656879</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>60</v>
@@ -898,7 +893,7 @@
       </c>
       <c r="C8" s="24">
         <f>'Energy Balance 2017'!B26</f>
-        <v>43.430782459157591</v>
+        <v>43.434813440240994</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>8</v>
@@ -917,7 +912,7 @@
       </c>
       <c r="C9" s="24">
         <f>'Energy Balance 2017'!B27</f>
-        <v>0.36113499570077584</v>
+        <v>0.36516395699914211</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>9</v>
@@ -936,7 +931,7 @@
       </c>
       <c r="C10" s="24">
         <f>'Energy Balance 2017'!B28</f>
-        <v>2.1129921471820268</v>
+        <v>1.7674569872885257</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -955,7 +950,7 @@
       </c>
       <c r="C11" s="24">
         <f>C6+C20+C31+C41+C51+C61+C71+C81</f>
-        <v>1237.1485344725234</v>
+        <v>1132.5447866843281</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -974,7 +969,7 @@
       </c>
       <c r="C12" s="24">
         <f>C7+C21+C32+C42+C52+C62+C72+C82</f>
-        <v>2016.0621146414685</v>
+        <v>1947.2740396015565</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>61</v>
@@ -993,7 +988,7 @@
       </c>
       <c r="C13" s="24">
         <f>C8+C22+C33+C43+C53+C63+C73+C83</f>
-        <v>3907.4519083887267</v>
+        <v>3876.8074897992142</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>5</v>
@@ -1012,7 +1007,7 @@
       </c>
       <c r="C14" s="24">
         <f>C9+C23+C34+C44+C54+C64+C74+C84</f>
-        <v>4579.910170462239</v>
+        <v>4655.6062958771554</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>21</v>
@@ -1031,7 +1026,7 @@
       </c>
       <c r="C15" s="24">
         <f>C10+C24+C35+C45+C55+C65+C75+C85</f>
-        <v>2217.2009745582945</v>
+        <v>2218.355609918628</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>13</v>
@@ -1050,7 +1045,7 @@
       </c>
       <c r="C16" s="24">
         <f>'Energy Balance 2017'!C5</f>
-        <v>52926.146686182503</v>
+        <v>53880.771466865459</v>
       </c>
       <c r="I16" t="s">
         <v>23</v>
@@ -1069,7 +1064,7 @@
       </c>
       <c r="C17" s="24">
         <f>'Energy Balance 2017'!C6</f>
-        <v>6090.2525177746411</v>
+        <v>7102.8528716997844</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
@@ -1088,7 +1083,7 @@
       </c>
       <c r="C18" s="24">
         <f>-'Energy Balance 2017'!C9</f>
-        <v>47955.704136857777</v>
+        <v>50098.135206804145</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>25</v>
@@ -1107,7 +1102,7 @@
       </c>
       <c r="C19" s="24">
         <f>'Energy Balance 2017'!C13</f>
-        <v>44.849882055171939</v>
+        <v>-14.206701935079563</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>17</v>
@@ -1193,7 +1188,7 @@
       </c>
       <c r="C25" s="24">
         <f>-'Energy Balance 2017'!C17+-'Energy Balance 2017'!C18</f>
-        <v>11105.544949154537</v>
+        <v>10871.282429826017</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -1217,7 +1212,7 @@
       </c>
       <c r="C27" s="24">
         <f>'Energy Balance 2017'!D6</f>
-        <v>3176.6055366253076</v>
+        <v>2518.9822702540778</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -1229,7 +1224,7 @@
       </c>
       <c r="C28" s="24">
         <f>-'Energy Balance 2017'!D9</f>
-        <v>5979.4983924660055</v>
+        <v>5063.1736514944141</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -1241,7 +1236,7 @@
       </c>
       <c r="C29" s="24">
         <f>-'Energy Balance 2017'!D12</f>
-        <v>1002.590149267652</v>
+        <v>958.02668640858701</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -1253,7 +1248,7 @@
       </c>
       <c r="C30" s="24">
         <f>-'Energy Balance 2017'!D13+'Energy Balance 2017'!D17+'Energy Balance 2017'!D18</f>
-        <v>10826.556017397801</v>
+        <v>10763.461233300342</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1265,7 +1260,7 @@
       </c>
       <c r="C31" s="24">
         <f>'Energy Balance 2017'!D24</f>
-        <v>1125.2647513822537</v>
+        <v>1013.6220410826397</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -1277,7 +1272,7 @@
       </c>
       <c r="C32" s="24">
         <f>'Energy Balance 2017'!D25</f>
-        <v>177.56837512603184</v>
+        <v>183.1933860296034</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1289,7 +1284,7 @@
       </c>
       <c r="C33" s="24">
         <f>'Energy Balance 2017'!D26</f>
-        <v>263.14447083901541</v>
+        <v>267.62779263426745</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1301,7 +1296,7 @@
       </c>
       <c r="C34" s="24">
         <f>'Energy Balance 2017'!D27</f>
-        <v>4449.0157472838027</v>
+        <v>4496.7727021550672</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1313,7 +1308,7 @@
       </c>
       <c r="C35" s="24">
         <f>'Energy Balance 2017'!D28</f>
-        <v>512.53222676050734</v>
+        <v>534.32967121791887</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1325,7 +1320,7 @@
       </c>
       <c r="C36" s="5">
         <f>'Energy Balance 2017'!D22-'Energy Balance 2017'!D15+-'Energy Balance 2017'!D15</f>
-        <v>584.11124447312568</v>
+        <v>573.98492106180265</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1337,7 +1332,7 @@
       </c>
       <c r="C37" s="5">
         <f>'Energy Balance 2017'!E5</f>
-        <v>24122.958278160062</v>
+        <v>19933.868521867742</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1349,7 +1344,7 @@
       </c>
       <c r="C38" s="5">
         <f>'Energy Balance 2017'!E6</f>
-        <v>14063.185452902055</v>
+        <v>9496.9802780032915</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1361,7 +1356,7 @@
       </c>
       <c r="C39" s="24">
         <f>-'Energy Balance 2017'!E9</f>
-        <v>28722.282377307893</v>
+        <v>20211.234950617345</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1385,7 +1380,7 @@
       </c>
       <c r="C41" s="24">
         <f>'Energy Balance 2017'!E24</f>
-        <v>59.263883971473689</v>
+        <v>57.485361213904547</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1397,7 +1392,7 @@
       </c>
       <c r="C42" s="5">
         <f>'Energy Balance 2017'!E25</f>
-        <v>935.55392882101103</v>
+        <v>872.78652624471704</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1409,7 +1404,7 @@
       </c>
       <c r="C43" s="24">
         <f>'Energy Balance 2017'!E26</f>
-        <v>2355.44966903881</v>
+        <v>2368.0909619473405</v>
       </c>
       <c r="I43" s="1"/>
     </row>
@@ -1435,7 +1430,7 @@
       </c>
       <c r="C45" s="24">
         <f>'Energy Balance 2017'!E28</f>
-        <v>873.61926755698801</v>
+        <v>854.88599575010585</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1447,7 +1442,7 @@
       </c>
       <c r="C46" s="24">
         <f>-'Energy Balance 2017'!E18+'Energy Balance 2017'!E22</f>
-        <v>5239.9746043659452</v>
+        <v>5066.365004097619</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1459,7 +1454,7 @@
       </c>
       <c r="C47" s="5">
         <f>'Energy Balance 2017'!F5</f>
-        <v>757.20375649635287</v>
+        <v>761.88279159088006</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1471,7 +1466,7 @@
       </c>
       <c r="C48" s="5">
         <f>'Energy Balance 2017'!F6</f>
-        <v>241.11632141442743</v>
+        <v>318.2905208254225</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1483,7 +1478,7 @@
       </c>
       <c r="C49" s="24">
         <f>-'Energy Balance 2017'!F9</f>
-        <v>16.021582286988252</v>
+        <v>23.524761072446633</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1519,7 +1514,7 @@
       </c>
       <c r="C52" s="5">
         <f>'Energy Balance 2017'!F25</f>
-        <v>98.132461902953565</v>
+        <v>87.149772298636236</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1531,7 +1526,7 @@
       </c>
       <c r="C53" s="24">
         <f>'Energy Balance 2017'!F26</f>
-        <v>160.10730182375826</v>
+        <v>146.08165232597258</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1543,7 +1538,7 @@
       </c>
       <c r="C54" s="24">
         <f>'Energy Balance 2017'!F27</f>
-        <v>92.185039969441235</v>
+        <v>115.6831013480523</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1555,7 +1550,7 @@
       </c>
       <c r="C55" s="24">
         <f>'Energy Balance 2017'!F28</f>
-        <v>86.643124076850185</v>
+        <v>87.380202728974979</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1567,7 +1562,7 @@
       </c>
       <c r="C56" s="24">
         <f>-'Energy Balance 2017'!F18+'Energy Balance 2017'!F22</f>
-        <v>544.66443420107191</v>
+        <v>620.37171068291354</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1579,7 +1574,7 @@
       </c>
       <c r="C57" s="5">
         <f>'Energy Balance 2017'!G5</f>
-        <v>5034.0136633455586</v>
+        <v>5295.878382667388</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1687,7 +1682,7 @@
       </c>
       <c r="C66" s="24">
         <f>-'Energy Balance 2017'!G17+-'Energy Balance 2017'!G18+'Energy Balance 2017'!G22</f>
-        <v>5034.0136633455586</v>
+        <v>5295.878382667388</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -1711,7 +1706,7 @@
       </c>
       <c r="C68" s="5">
         <f>'Energy Balance 2017'!H6</f>
-        <v>99.635167669819978</v>
+        <v>106.93319002579594</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1723,7 +1718,7 @@
       </c>
       <c r="C69" s="5">
         <f>-'Energy Balance 2017'!H9</f>
-        <v>1261.8843508168598</v>
+        <v>1470.0959587274372</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -1735,7 +1730,7 @@
       </c>
       <c r="C70" s="5">
         <f>'Energy Balance 2017'!H13+'Energy Balance 2017'!H17+'Energy Balance 2017'!H18</f>
-        <v>4147.5834302083695</v>
+        <v>4296.597728519916</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -1759,7 +1754,7 @@
       </c>
       <c r="C72" s="5">
         <f>'Energy Balance 2017'!H25</f>
-        <v>714.94006808840356</v>
+        <v>718.46919819610491</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -1771,7 +1766,7 @@
       </c>
       <c r="C73" s="5">
         <f>'Energy Balance 2017'!H26</f>
-        <v>1059.1373970396792</v>
+        <v>1025.0792974316162</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -1783,7 +1778,7 @@
       </c>
       <c r="C74" s="5">
         <f>'Energy Balance 2017'!H27</f>
-        <v>38.348248213293964</v>
+        <v>42.785328417037135</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -1795,7 +1790,7 @@
       </c>
       <c r="C75" s="5">
         <f>'Energy Balance 2017'!H28</f>
-        <v>742.29336401676699</v>
+        <v>739.99228323433954</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -1807,7 +1802,7 @@
       </c>
       <c r="C76" s="5">
         <f>'Energy Balance 2017'!H22</f>
-        <v>430.6151697031857</v>
+        <v>407.10885253917718</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -1855,7 +1850,7 @@
       </c>
       <c r="C80" s="5">
         <f>'Energy Balance 2017'!I13+'Energy Balance 2017'!I17+'Energy Balance 2017'!I18</f>
-        <v>118.85195238779175</v>
+        <v>120.37350197419499</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -1867,7 +1862,7 @@
       </c>
       <c r="C81" s="5">
         <f>'Energy Balance 2017'!I24</f>
-        <v>52.619899118795843</v>
+        <v>61.437384387783851</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -1879,7 +1874,7 @@
       </c>
       <c r="C82" s="5">
         <f>'Energy Balance 2017'!I25</f>
-        <v>9.4953201417375954</v>
+        <v>9.6805474918382135</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -1891,7 +1886,7 @@
       </c>
       <c r="C83" s="5">
         <f>'Energy Balance 2017'!I26</f>
-        <v>26.182287188306248</v>
+        <v>26.49297201977658</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -1927,7 +1922,7 @@
       </c>
       <c r="C86" s="5">
         <f>'Energy Balance 2017'!I22</f>
-        <v>30.554445938952057</v>
+        <v>22.76259807049712</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -2002,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2097,22 +2092,22 @@
         <v>29</v>
       </c>
       <c r="B5" s="20">
-        <v>401.93995414158786</v>
+        <v>268.31704404318333</v>
       </c>
       <c r="C5" s="20">
-        <v>52926.146686182503</v>
+        <v>53880.771466865459</v>
       </c>
       <c r="D5" s="20">
         <v>0</v>
       </c>
       <c r="E5" s="20">
-        <v>24122.958278160062</v>
+        <v>19933.868521867742</v>
       </c>
       <c r="F5" s="20">
-        <v>757.20375649635287</v>
+        <v>761.88279159088006</v>
       </c>
       <c r="G5" s="20">
-        <v>5034.0136633455586</v>
+        <v>5295.878382667388</v>
       </c>
       <c r="H5" s="20">
         <v>0</v>
@@ -2121,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="21">
-        <v>83242.262338326065</v>
+        <v>80140.718207034646</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2129,31 +2124,31 @@
         <v>30</v>
       </c>
       <c r="B6" s="20">
-        <v>3.3916809974204643E-5</v>
+        <v>1.6522282889079966E-3</v>
       </c>
       <c r="C6" s="20">
-        <v>6090.2525177746411</v>
+        <v>7102.8528716997844</v>
       </c>
       <c r="D6" s="20">
-        <v>3176.6055366253076</v>
+        <v>2518.9822702540778</v>
       </c>
       <c r="E6" s="20">
-        <v>14063.185452902055</v>
+        <v>9496.9802780032915</v>
       </c>
       <c r="F6" s="20">
-        <v>241.11632141442743</v>
+        <v>318.2905208254225</v>
       </c>
       <c r="G6" s="20">
         <v>0</v>
       </c>
       <c r="H6" s="20">
-        <v>99.635167669819978</v>
+        <v>106.93319002579594</v>
       </c>
       <c r="I6" s="20">
         <v>0</v>
       </c>
       <c r="J6" s="21">
-        <v>23670.795030303067</v>
+        <v>19544.04078303666</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2164,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="20">
-        <v>6090.2525177746411</v>
+        <v>7102.8528716997844</v>
       </c>
       <c r="D7" s="20">
-        <v>2446.5685462545644</v>
+        <v>1800.0823071540851</v>
       </c>
       <c r="E7" s="20">
-        <v>14051.762682717188</v>
+        <v>9459.2330180568024</v>
       </c>
       <c r="F7" s="20">
         <v>0</v>
@@ -2199,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="20">
-        <v>730.03699037074352</v>
+        <v>718.89996309999276</v>
       </c>
       <c r="E8" s="20">
-        <v>11.422770184866787</v>
+        <v>37.747259946489457</v>
       </c>
       <c r="F8" s="20">
         <v>0</v>
@@ -2211,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="20">
-        <v>99.635167669819978</v>
+        <v>106.93319002579594</v>
       </c>
       <c r="I8" s="20">
         <v>0</v>
@@ -2225,31 +2220,31 @@
         <v>33</v>
       </c>
       <c r="B9" s="20">
-        <v>-275.65451944274798</v>
+        <v>-146.75665254628672</v>
       </c>
       <c r="C9" s="20">
-        <v>-47955.704136857777</v>
+        <v>-50098.135206804145</v>
       </c>
       <c r="D9" s="20">
-        <v>-5979.4983924660055</v>
+        <v>-5063.1736514944141</v>
       </c>
       <c r="E9" s="20">
-        <v>-28722.282377307893</v>
+        <v>-20211.234950617345</v>
       </c>
       <c r="F9" s="20">
-        <v>-16.021582286988252</v>
+        <v>-23.524761072446633</v>
       </c>
       <c r="G9" s="20">
         <v>0</v>
       </c>
       <c r="H9" s="20">
-        <v>-1261.8843508168598</v>
+        <v>-1470.0959587274372</v>
       </c>
       <c r="I9" s="20">
         <v>0</v>
       </c>
       <c r="J9" s="21">
-        <v>-84211.045359178286</v>
+        <v>-77012.921181262078</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2260,13 +2255,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="20">
-        <v>-22787.404014714884</v>
+        <v>-37699.575165462295</v>
       </c>
       <c r="D10" s="20">
-        <v>-5596.7122406302451</v>
+        <v>-3237.4766739010074</v>
       </c>
       <c r="E10" s="20">
-        <v>-1679.1112652649533</v>
+        <v>-2676.3533963886648</v>
       </c>
       <c r="F10" s="20">
         <v>0</v>
@@ -2292,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="20">
-        <v>-25168.300122142897</v>
+        <v>-12398.560041341847</v>
       </c>
       <c r="D11" s="20">
-        <v>-382.78615183576028</v>
+        <v>-1825.6969775934067</v>
       </c>
       <c r="E11" s="20">
-        <v>-27043.171112042939</v>
+        <v>-17534.881554228679</v>
       </c>
       <c r="F11" s="20">
         <v>0</v>
@@ -2307,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="20">
-        <v>-1261.8843508168598</v>
+        <v>-1470.0959587274372</v>
       </c>
       <c r="I11" s="20">
         <v>0</v>
@@ -2327,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="20">
-        <v>-1002.590149267652</v>
+        <v>-958.02668640858701</v>
       </c>
       <c r="E12" s="20">
         <v>0</v>
@@ -2345,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="21">
-        <v>-1002.590149267652</v>
+        <v>-958.02668640858701</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -2356,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="20">
-        <v>44.849882055171939</v>
+        <v>-14.206701935079563</v>
       </c>
       <c r="D13" s="20">
-        <v>44.719879280166758</v>
+        <v>-97.10881951224259</v>
       </c>
       <c r="E13" s="20">
         <v>0</v>
@@ -2377,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="21">
-        <v>89.569761335338697</v>
+        <v>-111.31552144732215</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2385,31 +2380,31 @@
         <v>36</v>
       </c>
       <c r="B14" s="8">
-        <v>126.28546861564988</v>
+        <v>121.56204372518552</v>
       </c>
       <c r="C14" s="8">
-        <v>11105.544949154541</v>
+        <v>10871.282429826017</v>
       </c>
       <c r="D14" s="8">
-        <v>-3760.7631258281831</v>
+        <v>-3599.3268871611658</v>
       </c>
       <c r="E14" s="8">
-        <v>9463.861353754226</v>
+        <v>9219.6138492536884</v>
       </c>
       <c r="F14" s="8">
-        <v>981.73236197407516</v>
+        <v>1056.6664393845497</v>
       </c>
       <c r="G14" s="8">
-        <v>5034.0136633455586</v>
+        <v>5295.878382667388</v>
       </c>
       <c r="H14" s="8">
-        <v>-1162.2491831470397</v>
+        <v>-1363.1627687016412</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
       </c>
       <c r="J14" s="9">
-        <v>21788.425487868826</v>
+        <v>21602.51348899402</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -2423,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="20">
-        <v>-1.1240450149512071</v>
+        <v>-2.504987554365016</v>
       </c>
       <c r="E15" s="20">
         <v>0</v>
@@ -2441,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="21">
-        <v>-1.1240450149512071</v>
+        <v>-2.504987554365016</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2449,31 +2444,31 @@
         <v>38</v>
       </c>
       <c r="B16" s="8">
-        <v>126.28546861564988</v>
+        <v>121.56204372518552</v>
       </c>
       <c r="C16" s="8">
-        <v>11105.544949154537</v>
+        <v>10871.282429826017</v>
       </c>
       <c r="D16" s="8">
-        <v>-3761.8871708431343</v>
+        <v>-3601.8318747155308</v>
       </c>
       <c r="E16" s="8">
-        <v>9463.8613537542296</v>
+        <v>9219.6138492536884</v>
       </c>
       <c r="F16" s="8">
-        <v>981.73236197407516</v>
+        <v>1056.6664393845497</v>
       </c>
       <c r="G16" s="8">
-        <v>5034.0136633455586</v>
+        <v>5295.878382667388</v>
       </c>
       <c r="H16" s="8">
-        <v>-1162.2491831470397</v>
+        <v>-1363.1627687016407</v>
       </c>
       <c r="I16" s="8">
         <v>0</v>
       </c>
       <c r="J16" s="9">
-        <v>21787.301442853874</v>
+        <v>21600.008501439657</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -2484,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="20">
-        <v>-1930.4810265331166</v>
+        <v>-1074.9540430790682</v>
       </c>
       <c r="D17" s="20">
-        <v>1930.4810265331166</v>
+        <v>1074.9540430790682</v>
       </c>
       <c r="E17" s="20">
         <v>0</v>
@@ -2496,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="20">
-        <v>-2092.7724080189364</v>
+        <v>-2411.7790870058489</v>
       </c>
       <c r="H17" s="20">
-        <v>2092.7724080189364</v>
+        <v>2411.7790870058489</v>
       </c>
       <c r="I17" s="20">
         <v>0</v>
@@ -2516,28 +2511,28 @@
         <v>0</v>
       </c>
       <c r="C18" s="20">
-        <v>-9175.0639226214207</v>
+        <v>-9796.328386746949</v>
       </c>
       <c r="D18" s="20">
-        <v>8940.7948701448513</v>
+        <v>9591.398370709032</v>
       </c>
       <c r="E18" s="20">
-        <v>-1478.3858772496594</v>
+        <v>-1232.6294866925787</v>
       </c>
       <c r="F18" s="20">
-        <v>-544.66443420107191</v>
+        <v>-620.37171068291354</v>
       </c>
       <c r="G18" s="20">
-        <v>-2941.2412553266217</v>
+        <v>-2884.0992956615391</v>
       </c>
       <c r="H18" s="20">
-        <v>2054.8110221894326</v>
+        <v>1884.8186415140672</v>
       </c>
       <c r="I18" s="20">
-        <v>118.85195238779175</v>
+        <v>120.37350197419499</v>
       </c>
       <c r="J18" s="21">
-        <v>-3024.8976446766983</v>
+        <v>-2936.838365586686</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -2551,25 +2546,25 @@
         <v>0</v>
       </c>
       <c r="D19" s="20">
-        <v>-122.20203054151465</v>
+        <v>-58.259009310215809</v>
       </c>
       <c r="E19" s="20">
-        <v>-1296.428062330529</v>
+        <v>-1065.2483646981811</v>
       </c>
       <c r="F19" s="20">
-        <v>-533.195107588528</v>
+        <v>-607.37989438649879</v>
       </c>
       <c r="G19" s="20">
-        <v>-2941.2412553266217</v>
+        <v>-2884.0992956615391</v>
       </c>
       <c r="H19" s="20">
-        <v>2054.8110221894326</v>
+        <v>1884.8186415140672</v>
       </c>
       <c r="I19" s="20">
         <v>0</v>
       </c>
       <c r="J19" s="21">
-        <v>-2838.2554335977607</v>
+        <v>-2730.1679225423677</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -2580,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="20">
-        <v>-9175.0639226214207</v>
+        <v>-9796.328386746949</v>
       </c>
       <c r="D20" s="20">
-        <v>9125.3215529965692</v>
+        <v>9710.4043087511691</v>
       </c>
       <c r="E20" s="20">
         <v>0</v>
@@ -2601,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="21">
-        <v>-49.742369624851563</v>
+        <v>-85.924077995779953</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -2615,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="20">
-        <v>-62.324652310203362</v>
+        <v>-60.746928731921706</v>
       </c>
       <c r="E21" s="20">
-        <v>-181.95781491913053</v>
+        <v>-167.3811219943974</v>
       </c>
       <c r="F21" s="20">
-        <v>-11.46932661254391</v>
+        <v>-12.991816296414754</v>
       </c>
       <c r="G21" s="20">
         <v>0</v>
@@ -2630,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="20">
-        <v>118.85195238779175</v>
+        <v>120.37350197419499</v>
       </c>
       <c r="J21" s="21">
-        <v>-136.89984145408604</v>
+        <v>-120.74636504853888</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -2647,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="20">
-        <v>581.86315444322327</v>
+        <v>568.97494595307262</v>
       </c>
       <c r="E22" s="20">
-        <v>3761.5887271162856</v>
+        <v>3833.7355174050408</v>
       </c>
       <c r="F22" s="20">
         <v>0</v>
@@ -2659,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="20">
-        <v>430.6151697031857</v>
+        <v>407.10885253917718</v>
       </c>
       <c r="I22" s="20">
-        <v>30.554445938952057</v>
+        <v>22.76259807049712</v>
       </c>
       <c r="J22" s="21">
-        <v>4804.6214972016469</v>
+        <v>4832.5819139677869</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2673,31 +2668,31 @@
         <v>44</v>
       </c>
       <c r="B23" s="8">
-        <v>126.28546861564988</v>
+        <v>121.56204372518552</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
       </c>
       <c r="D23" s="8">
-        <v>6527.5255713916094</v>
+        <v>6495.5455931194965</v>
       </c>
       <c r="E23" s="8">
-        <v>4223.8867493882835</v>
+        <v>4153.2488451560685</v>
       </c>
       <c r="F23" s="8">
-        <v>437.06792777300325</v>
+        <v>436.29472870163607</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <v>2554.7190773581437</v>
+        <v>2526.3261072790979</v>
       </c>
       <c r="I23" s="8">
-        <v>88.297506448839698</v>
+        <v>97.610903903697874</v>
       </c>
       <c r="J23" s="9">
-        <v>13957.78230097553</v>
+        <v>13830.588221885182</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -2711,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="20">
-        <v>1125.2647513822537</v>
+        <v>1013.6220410826397</v>
       </c>
       <c r="E24" s="20">
-        <v>59.263883971473689</v>
+        <v>57.485361213904547</v>
       </c>
       <c r="F24" s="20">
         <v>0</v>
@@ -2726,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="20">
-        <v>52.619899118795843</v>
+        <v>61.437384387783851</v>
       </c>
       <c r="J24" s="21">
-        <v>1237.1485344725234</v>
+        <v>1132.5447866843281</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -2737,31 +2732,31 @@
         <v>8</v>
       </c>
       <c r="B25" s="20">
-        <v>80.37196056133088</v>
+        <v>75.994609340656879</v>
       </c>
       <c r="C25" s="20">
         <v>0</v>
       </c>
       <c r="D25" s="20">
-        <v>177.56837512603184</v>
+        <v>183.1933860296034</v>
       </c>
       <c r="E25" s="20">
-        <v>935.55392882101103</v>
+        <v>872.78652624471704</v>
       </c>
       <c r="F25" s="20">
-        <v>98.132461902953565</v>
+        <v>87.149772298636236</v>
       </c>
       <c r="G25" s="20">
         <v>0</v>
       </c>
       <c r="H25" s="20">
-        <v>714.94006808840356</v>
+        <v>718.46919819610491</v>
       </c>
       <c r="I25" s="20">
-        <v>9.4953201417375954</v>
+        <v>9.6805474918382135</v>
       </c>
       <c r="J25" s="21">
-        <v>2016.0621146414685</v>
+        <v>1947.2740396015565</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -2769,31 +2764,31 @@
         <v>9</v>
       </c>
       <c r="B26" s="20">
-        <v>43.430782459157591</v>
+        <v>43.434813440240994</v>
       </c>
       <c r="C26" s="20">
         <v>0</v>
       </c>
       <c r="D26" s="20">
-        <v>263.14447083901541</v>
+        <v>267.62779263426745</v>
       </c>
       <c r="E26" s="20">
-        <v>2355.44966903881</v>
+        <v>2368.0909619473405</v>
       </c>
       <c r="F26" s="20">
-        <v>160.10730182375826</v>
+        <v>146.08165232597258</v>
       </c>
       <c r="G26" s="20">
         <v>0</v>
       </c>
       <c r="H26" s="20">
-        <v>1059.1373970396792</v>
+        <v>1025.0792974316162</v>
       </c>
       <c r="I26" s="20">
-        <v>26.182287188306248</v>
+        <v>26.49297201977658</v>
       </c>
       <c r="J26" s="21">
-        <v>3907.4519083887267</v>
+        <v>3876.8074897992142</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -2801,31 +2796,31 @@
         <v>10</v>
       </c>
       <c r="B27" s="20">
-        <v>0.36113499570077584</v>
+        <v>0.36516395699914211</v>
       </c>
       <c r="C27" s="20">
         <v>0</v>
       </c>
       <c r="D27" s="20">
-        <v>4449.0157472838027</v>
+        <v>4496.7727021550672</v>
       </c>
       <c r="E27" s="20">
         <v>0</v>
       </c>
       <c r="F27" s="20">
-        <v>92.185039969441235</v>
+        <v>115.6831013480523</v>
       </c>
       <c r="G27" s="20">
         <v>0</v>
       </c>
       <c r="H27" s="20">
-        <v>38.348248213293964</v>
+        <v>42.785328417037135</v>
       </c>
       <c r="I27" s="20">
         <v>0</v>
       </c>
       <c r="J27" s="21">
-        <v>4579.910170462239</v>
+        <v>4655.6062958771554</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -2833,31 +2828,31 @@
         <v>11</v>
       </c>
       <c r="B28" s="22">
-        <v>2.1129921471820268</v>
+        <v>1.7674569872885257</v>
       </c>
       <c r="C28" s="22">
         <v>0</v>
       </c>
       <c r="D28" s="22">
-        <v>512.53222676050734</v>
+        <v>534.32967121791887</v>
       </c>
       <c r="E28" s="22">
-        <v>873.61926755698801</v>
+        <v>854.88599575010585</v>
       </c>
       <c r="F28" s="22">
-        <v>86.643124076850185</v>
+        <v>87.380202728974979</v>
       </c>
       <c r="G28" s="22">
         <v>0</v>
       </c>
       <c r="H28" s="22">
-        <v>742.29336401676699</v>
+        <v>739.99228323433954</v>
       </c>
       <c r="I28" s="22">
         <v>0</v>
       </c>
       <c r="J28" s="23">
-        <v>2217.2009745582945</v>
+        <v>2218.355609918628</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3105,7 @@
       </c>
       <c r="C2">
         <f>'Working Out'!C2</f>
-        <v>401.93995414158786</v>
+        <v>268.31704404318333</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3124,7 +3119,7 @@
       </c>
       <c r="C3">
         <f>'Working Out'!C3</f>
-        <v>3.3916809974204643E-5</v>
+        <v>1.6522282889079966E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3138,7 +3133,7 @@
       </c>
       <c r="C4">
         <f>'Working Out'!C4</f>
-        <v>275.65451944274798</v>
+        <v>146.75665254628672</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3180,7 +3175,7 @@
       </c>
       <c r="C7">
         <f>'Working Out'!C7</f>
-        <v>80.37196056133088</v>
+        <v>75.994609340656879</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3194,7 +3189,7 @@
       </c>
       <c r="C8">
         <f>'Working Out'!C8</f>
-        <v>43.430782459157591</v>
+        <v>43.434813440240994</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3208,7 +3203,7 @@
       </c>
       <c r="C9">
         <f>'Working Out'!C9</f>
-        <v>0.36113499570077584</v>
+        <v>0.36516395699914211</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3222,7 +3217,7 @@
       </c>
       <c r="C10">
         <f>'Working Out'!C10</f>
-        <v>2.1129921471820268</v>
+        <v>1.7674569872885257</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3236,7 +3231,7 @@
       </c>
       <c r="C11">
         <f>'Working Out'!C11</f>
-        <v>1237.1485344725234</v>
+        <v>1132.5447866843281</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3250,7 +3245,7 @@
       </c>
       <c r="C12">
         <f>'Working Out'!C12</f>
-        <v>2016.0621146414685</v>
+        <v>1947.2740396015565</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3264,7 +3259,7 @@
       </c>
       <c r="C13">
         <f>'Working Out'!C13</f>
-        <v>3907.4519083887267</v>
+        <v>3876.8074897992142</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3278,7 +3273,7 @@
       </c>
       <c r="C14">
         <f>'Working Out'!C14</f>
-        <v>4579.910170462239</v>
+        <v>4655.6062958771554</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3292,7 +3287,7 @@
       </c>
       <c r="C15">
         <f>'Working Out'!C15</f>
-        <v>2217.2009745582945</v>
+        <v>2218.355609918628</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3306,7 +3301,7 @@
       </c>
       <c r="C16">
         <f>'Working Out'!C16</f>
-        <v>52926.146686182503</v>
+        <v>53880.771466865459</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3320,7 +3315,7 @@
       </c>
       <c r="C17">
         <f>'Working Out'!C17</f>
-        <v>6090.2525177746411</v>
+        <v>7102.8528716997844</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3334,7 +3329,7 @@
       </c>
       <c r="C18">
         <f>'Working Out'!C18</f>
-        <v>47955.704136857777</v>
+        <v>50098.135206804145</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3348,7 +3343,7 @@
       </c>
       <c r="C19">
         <f>'Working Out'!C19</f>
-        <v>44.849882055171939</v>
+        <v>-14.206701935079563</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3432,7 +3427,7 @@
       </c>
       <c r="C25">
         <f>'Working Out'!C25</f>
-        <v>11105.544949154537</v>
+        <v>10871.282429826017</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3460,7 +3455,7 @@
       </c>
       <c r="C27">
         <f>'Working Out'!C27</f>
-        <v>3176.6055366253076</v>
+        <v>2518.9822702540778</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3474,7 +3469,7 @@
       </c>
       <c r="C28">
         <f>'Working Out'!C28</f>
-        <v>5979.4983924660055</v>
+        <v>5063.1736514944141</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3488,7 +3483,7 @@
       </c>
       <c r="C29">
         <f>'Working Out'!C29</f>
-        <v>1002.590149267652</v>
+        <v>958.02668640858701</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -3502,7 +3497,7 @@
       </c>
       <c r="C30">
         <f>'Working Out'!C30</f>
-        <v>10826.556017397801</v>
+        <v>10763.461233300342</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -3516,7 +3511,7 @@
       </c>
       <c r="C31">
         <f>'Working Out'!C31</f>
-        <v>1125.2647513822537</v>
+        <v>1013.6220410826397</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3530,7 +3525,7 @@
       </c>
       <c r="C32">
         <f>'Working Out'!C32</f>
-        <v>177.56837512603184</v>
+        <v>183.1933860296034</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -3544,7 +3539,7 @@
       </c>
       <c r="C33">
         <f>'Working Out'!C33</f>
-        <v>263.14447083901541</v>
+        <v>267.62779263426745</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -3558,7 +3553,7 @@
       </c>
       <c r="C34">
         <f>'Working Out'!C34</f>
-        <v>4449.0157472838027</v>
+        <v>4496.7727021550672</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -3572,7 +3567,7 @@
       </c>
       <c r="C35">
         <f>'Working Out'!C35</f>
-        <v>512.53222676050734</v>
+        <v>534.32967121791887</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -3586,7 +3581,7 @@
       </c>
       <c r="C36">
         <f>'Working Out'!C36</f>
-        <v>584.11124447312568</v>
+        <v>573.98492106180265</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -3600,7 +3595,7 @@
       </c>
       <c r="C37">
         <f>'Working Out'!C37</f>
-        <v>24122.958278160062</v>
+        <v>19933.868521867742</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -3614,7 +3609,7 @@
       </c>
       <c r="C38">
         <f>'Working Out'!C38</f>
-        <v>14063.185452902055</v>
+        <v>9496.9802780032915</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -3628,7 +3623,7 @@
       </c>
       <c r="C39">
         <f>'Working Out'!C39</f>
-        <v>28722.282377307893</v>
+        <v>20211.234950617345</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -3656,7 +3651,7 @@
       </c>
       <c r="C41">
         <f>'Working Out'!C41</f>
-        <v>59.263883971473689</v>
+        <v>57.485361213904547</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -3670,7 +3665,7 @@
       </c>
       <c r="C42">
         <f>'Working Out'!C42</f>
-        <v>935.55392882101103</v>
+        <v>872.78652624471704</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -3684,7 +3679,7 @@
       </c>
       <c r="C43">
         <f>'Working Out'!C43</f>
-        <v>2355.44966903881</v>
+        <v>2368.0909619473405</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -3712,7 +3707,7 @@
       </c>
       <c r="C45">
         <f>'Working Out'!C45</f>
-        <v>873.61926755698801</v>
+        <v>854.88599575010585</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -3726,7 +3721,7 @@
       </c>
       <c r="C46">
         <f>'Working Out'!C46</f>
-        <v>5239.9746043659452</v>
+        <v>5066.365004097619</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -3740,7 +3735,7 @@
       </c>
       <c r="C47">
         <f>'Working Out'!C47</f>
-        <v>757.20375649635287</v>
+        <v>761.88279159088006</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -3754,7 +3749,7 @@
       </c>
       <c r="C48">
         <f>'Working Out'!C48</f>
-        <v>241.11632141442743</v>
+        <v>318.2905208254225</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -3768,7 +3763,7 @@
       </c>
       <c r="C49">
         <f>'Working Out'!C49</f>
-        <v>16.021582286988252</v>
+        <v>23.524761072446633</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -3810,7 +3805,7 @@
       </c>
       <c r="C52">
         <f>'Working Out'!C52</f>
-        <v>98.132461902953565</v>
+        <v>87.149772298636236</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -3824,7 +3819,7 @@
       </c>
       <c r="C53">
         <f>'Working Out'!C53</f>
-        <v>160.10730182375826</v>
+        <v>146.08165232597258</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -3838,7 +3833,7 @@
       </c>
       <c r="C54">
         <f>'Working Out'!C54</f>
-        <v>92.185039969441235</v>
+        <v>115.6831013480523</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -3852,7 +3847,7 @@
       </c>
       <c r="C55">
         <f>'Working Out'!C55</f>
-        <v>86.643124076850185</v>
+        <v>87.380202728974979</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -3866,7 +3861,7 @@
       </c>
       <c r="C56">
         <f>'Working Out'!C56</f>
-        <v>544.66443420107191</v>
+        <v>620.37171068291354</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -3880,7 +3875,7 @@
       </c>
       <c r="C57">
         <f>'Working Out'!C57</f>
-        <v>5034.0136633455586</v>
+        <v>5295.878382667388</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -4006,7 +4001,7 @@
       </c>
       <c r="C66">
         <f>'Working Out'!C66</f>
-        <v>5034.0136633455586</v>
+        <v>5295.878382667388</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -4034,7 +4029,7 @@
       </c>
       <c r="C68">
         <f>'Working Out'!C68</f>
-        <v>99.635167669819978</v>
+        <v>106.93319002579594</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -4048,7 +4043,7 @@
       </c>
       <c r="C69">
         <f>'Working Out'!C69</f>
-        <v>1261.8843508168598</v>
+        <v>1470.0959587274372</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -4062,7 +4057,7 @@
       </c>
       <c r="C70">
         <f>'Working Out'!C70</f>
-        <v>4147.5834302083695</v>
+        <v>4296.597728519916</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -4090,7 +4085,7 @@
       </c>
       <c r="C72">
         <f>'Working Out'!C72</f>
-        <v>714.94006808840356</v>
+        <v>718.46919819610491</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -4104,7 +4099,7 @@
       </c>
       <c r="C73">
         <f>'Working Out'!C73</f>
-        <v>1059.1373970396792</v>
+        <v>1025.0792974316162</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -4118,7 +4113,7 @@
       </c>
       <c r="C74">
         <f>'Working Out'!C74</f>
-        <v>38.348248213293964</v>
+        <v>42.785328417037135</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -4132,7 +4127,7 @@
       </c>
       <c r="C75">
         <f>'Working Out'!C75</f>
-        <v>742.29336401676699</v>
+        <v>739.99228323433954</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -4146,7 +4141,7 @@
       </c>
       <c r="C76">
         <f>'Working Out'!C76</f>
-        <v>430.6151697031857</v>
+        <v>407.10885253917718</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -4202,7 +4197,7 @@
       </c>
       <c r="C80">
         <f>'Working Out'!C80</f>
-        <v>118.85195238779175</v>
+        <v>120.37350197419499</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -4216,7 +4211,7 @@
       </c>
       <c r="C81">
         <f>'Working Out'!C81</f>
-        <v>52.619899118795843</v>
+        <v>61.437384387783851</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -4230,7 +4225,7 @@
       </c>
       <c r="C82">
         <f>'Working Out'!C82</f>
-        <v>9.4953201417375954</v>
+        <v>9.6805474918382135</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -4244,7 +4239,7 @@
       </c>
       <c r="C83">
         <f>'Working Out'!C83</f>
-        <v>26.182287188306248</v>
+        <v>26.49297201977658</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -4286,7 +4281,7 @@
       </c>
       <c r="C86">
         <f>'Working Out'!C86</f>
-        <v>30.554445938952057</v>
+        <v>22.76259807049712</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -4349,7 +4344,7 @@
       </c>
       <c r="C2" s="24">
         <f>'Energy Balance 2017'!B5</f>
-        <v>401.93995414158786</v>
+        <v>268.31704404318333</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>45</v>
@@ -4367,7 +4362,7 @@
       </c>
       <c r="C3" s="24">
         <f>'Energy Balance 2017'!B6</f>
-        <v>3.3916809974204643E-5</v>
+        <v>1.6522282889079966E-3</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>46</v>
@@ -4386,7 +4381,7 @@
       </c>
       <c r="C4" s="24">
         <f>-'Energy Balance 2017'!B9</f>
-        <v>275.65451944274798</v>
+        <v>146.75665254628672</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
@@ -4462,7 +4457,7 @@
       </c>
       <c r="C8" s="24">
         <f>'Energy Balance 2017'!B25</f>
-        <v>80.37196056133088</v>
+        <v>75.994609340656879</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>8</v>
@@ -4481,7 +4476,7 @@
       </c>
       <c r="C9" s="24">
         <f>'Energy Balance 2017'!B26</f>
-        <v>43.430782459157591</v>
+        <v>43.434813440240994</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>9</v>
@@ -4500,7 +4495,7 @@
       </c>
       <c r="C10" s="24">
         <f>'Energy Balance 2017'!B27</f>
-        <v>0.36113499570077584</v>
+        <v>0.36516395699914211</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -4519,7 +4514,7 @@
       </c>
       <c r="C11" s="24">
         <f>'Energy Balance 2017'!B28</f>
-        <v>2.1129921471820268</v>
+        <v>1.7674569872885257</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -4557,7 +4552,7 @@
       </c>
       <c r="C13" s="24">
         <f>C8</f>
-        <v>80.37196056133088</v>
+        <v>75.994609340656879</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>5</v>
@@ -4576,7 +4571,7 @@
       </c>
       <c r="C14" s="24">
         <f>C9</f>
-        <v>43.430782459157591</v>
+        <v>43.434813440240994</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>48</v>
@@ -4595,7 +4590,7 @@
       </c>
       <c r="C15" s="24">
         <f>C10</f>
-        <v>0.36113499570077584</v>
+        <v>0.36516395699914211</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>49</v>
@@ -4614,7 +4609,7 @@
       </c>
       <c r="C16" s="24">
         <f>C11</f>
-        <v>2.1129921471820268</v>
+        <v>1.7674569872885257</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>50</v>
@@ -4633,7 +4628,7 @@
       </c>
       <c r="C17" s="24">
         <f>'Energy Balance 2017'!C5</f>
-        <v>52926.146686182503</v>
+        <v>53880.771466865459</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>13</v>
@@ -4652,7 +4647,7 @@
       </c>
       <c r="C18" s="24">
         <f>'Energy Balance 2017'!C6</f>
-        <v>6090.2525177746411</v>
+        <v>7102.8528716997844</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>15</v>
@@ -4671,7 +4666,7 @@
       </c>
       <c r="C19" s="24">
         <f>-'Energy Balance 2017'!C9</f>
-        <v>47955.704136857777</v>
+        <v>50098.135206804145</v>
       </c>
       <c r="I19" t="s">
         <v>51</v>
@@ -4709,7 +4704,7 @@
       </c>
       <c r="C21" s="24">
         <f>'Energy Balance 2017'!C13</f>
-        <v>44.849882055171939</v>
+        <v>-14.206701935079563</v>
       </c>
       <c r="I21" t="s">
         <v>54</v>
@@ -4883,7 +4878,7 @@
       </c>
       <c r="C32" s="24">
         <f>-'Energy Balance 2017'!C17</f>
-        <v>1930.4810265331166</v>
+        <v>1074.9540430790682</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -4895,7 +4890,7 @@
       </c>
       <c r="C33" s="24">
         <f>-'Energy Balance 2017'!C18</f>
-        <v>9175.0639226214207</v>
+        <v>9796.328386746949</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -4919,7 +4914,7 @@
       </c>
       <c r="C35" s="24">
         <f>'Energy Balance 2017'!D6</f>
-        <v>3176.6055366253076</v>
+        <v>2518.9822702540778</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -4931,7 +4926,7 @@
       </c>
       <c r="C36" s="24">
         <f>-'Energy Balance 2017'!D9</f>
-        <v>5979.4983924660055</v>
+        <v>5063.1736514944141</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -4943,7 +4938,7 @@
       </c>
       <c r="C37" s="24">
         <f>-'Energy Balance 2017'!D12</f>
-        <v>1002.590149267652</v>
+        <v>958.02668640858701</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -4955,7 +4950,7 @@
       </c>
       <c r="C38" s="24">
         <f>-'Energy Balance 2017'!D13</f>
-        <v>-44.719879280166758</v>
+        <v>97.10881951224259</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -4967,7 +4962,7 @@
       </c>
       <c r="C39" s="24">
         <f>'Energy Balance 2017'!D24</f>
-        <v>1125.2647513822537</v>
+        <v>1013.6220410826397</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -4979,7 +4974,7 @@
       </c>
       <c r="C40" s="24">
         <f>'Energy Balance 2017'!D25</f>
-        <v>177.56837512603184</v>
+        <v>183.1933860296034</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -4991,7 +4986,7 @@
       </c>
       <c r="C41" s="24">
         <f>'Energy Balance 2017'!D26</f>
-        <v>263.14447083901541</v>
+        <v>267.62779263426745</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -5003,7 +4998,7 @@
       </c>
       <c r="C42" s="24">
         <f>'Energy Balance 2017'!D27</f>
-        <v>4449.0157472838027</v>
+        <v>4496.7727021550672</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -5015,7 +5010,7 @@
       </c>
       <c r="C43" s="24">
         <f>'Energy Balance 2017'!D28</f>
-        <v>512.53222676050734</v>
+        <v>534.32967121791887</v>
       </c>
       <c r="I43" s="1"/>
     </row>
@@ -5028,7 +5023,7 @@
       </c>
       <c r="C44" s="24">
         <f>C39</f>
-        <v>1125.2647513822537</v>
+        <v>1013.6220410826397</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -5041,7 +5036,7 @@
       </c>
       <c r="C45" s="24">
         <f>C40</f>
-        <v>177.56837512603184</v>
+        <v>183.1933860296034</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -5053,7 +5048,7 @@
       </c>
       <c r="C46" s="24">
         <f>C41</f>
-        <v>263.14447083901541</v>
+        <v>267.62779263426745</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -5065,7 +5060,7 @@
       </c>
       <c r="C47" s="24">
         <f>C42</f>
-        <v>4449.0157472838027</v>
+        <v>4496.7727021550672</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -5077,7 +5072,7 @@
       </c>
       <c r="C48" s="24">
         <f>C43</f>
-        <v>512.53222676050734</v>
+        <v>534.32967121791887</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -5089,7 +5084,7 @@
       </c>
       <c r="C49" s="24">
         <f>'Energy Balance 2017'!D17</f>
-        <v>1930.4810265331166</v>
+        <v>1074.9540430790682</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -5101,7 +5096,7 @@
       </c>
       <c r="C50" s="24">
         <f>'Energy Balance 2017'!D18</f>
-        <v>8940.7948701448513</v>
+        <v>9591.398370709032</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -5113,7 +5108,7 @@
       </c>
       <c r="C51" s="5">
         <f>'Energy Balance 2017'!D22</f>
-        <v>581.86315444322327</v>
+        <v>568.97494595307262</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -5125,7 +5120,7 @@
       </c>
       <c r="C52" s="5">
         <f>'Energy Balance 2017'!E5</f>
-        <v>24122.958278160062</v>
+        <v>19933.868521867742</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -5137,7 +5132,7 @@
       </c>
       <c r="C53" s="5">
         <f>'Energy Balance 2017'!E6</f>
-        <v>14063.185452902055</v>
+        <v>9496.9802780032915</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -5149,7 +5144,7 @@
       </c>
       <c r="C54" s="24">
         <f>-'Energy Balance 2017'!E9</f>
-        <v>28722.282377307893</v>
+        <v>20211.234950617345</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -5185,7 +5180,7 @@
       </c>
       <c r="C57" s="24">
         <f>'Energy Balance 2017'!E24</f>
-        <v>59.263883971473689</v>
+        <v>57.485361213904547</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -5197,7 +5192,7 @@
       </c>
       <c r="C58" s="5">
         <f>'Energy Balance 2017'!E25</f>
-        <v>935.55392882101103</v>
+        <v>872.78652624471704</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -5209,7 +5204,7 @@
       </c>
       <c r="C59" s="24">
         <f>'Energy Balance 2017'!E26</f>
-        <v>2355.44966903881</v>
+        <v>2368.0909619473405</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -5233,7 +5228,7 @@
       </c>
       <c r="C61" s="24">
         <f>'Energy Balance 2017'!E28</f>
-        <v>873.61926755698801</v>
+        <v>854.88599575010585</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -5245,7 +5240,7 @@
       </c>
       <c r="C62" s="24">
         <f>C57</f>
-        <v>59.263883971473689</v>
+        <v>57.485361213904547</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -5257,7 +5252,7 @@
       </c>
       <c r="C63" s="24">
         <f>C58</f>
-        <v>935.55392882101103</v>
+        <v>872.78652624471704</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -5269,7 +5264,7 @@
       </c>
       <c r="C64" s="24">
         <f>C59</f>
-        <v>2355.44966903881</v>
+        <v>2368.0909619473405</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -5293,7 +5288,7 @@
       </c>
       <c r="C66" s="24">
         <f>C61</f>
-        <v>873.61926755698801</v>
+        <v>854.88599575010585</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -5317,7 +5312,7 @@
       </c>
       <c r="C68" s="24">
         <f>-'Energy Balance 2017'!E18</f>
-        <v>1478.3858772496594</v>
+        <v>1232.6294866925787</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -5329,7 +5324,7 @@
       </c>
       <c r="C69" s="24">
         <f>'Energy Balance 2017'!E22</f>
-        <v>3761.5887271162856</v>
+        <v>3833.7355174050408</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -5341,7 +5336,7 @@
       </c>
       <c r="C70" s="5">
         <f>'Energy Balance 2017'!F5</f>
-        <v>757.20375649635287</v>
+        <v>761.88279159088006</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -5353,7 +5348,7 @@
       </c>
       <c r="C71" s="5">
         <f>'Energy Balance 2017'!F6</f>
-        <v>241.11632141442743</v>
+        <v>318.2905208254225</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -5365,7 +5360,7 @@
       </c>
       <c r="C72" s="24">
         <f>-'Energy Balance 2017'!F9</f>
-        <v>16.021582286988252</v>
+        <v>23.524761072446633</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -5413,7 +5408,7 @@
       </c>
       <c r="C76" s="5">
         <f>'Energy Balance 2017'!F25</f>
-        <v>98.132461902953565</v>
+        <v>87.149772298636236</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -5425,7 +5420,7 @@
       </c>
       <c r="C77" s="24">
         <f>'Energy Balance 2017'!F26</f>
-        <v>160.10730182375826</v>
+        <v>146.08165232597258</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -5437,7 +5432,7 @@
       </c>
       <c r="C78" s="24">
         <f>'Energy Balance 2017'!F27</f>
-        <v>92.185039969441235</v>
+        <v>115.6831013480523</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -5449,7 +5444,7 @@
       </c>
       <c r="C79" s="24">
         <f>'Energy Balance 2017'!F28</f>
-        <v>86.643124076850185</v>
+        <v>87.380202728974979</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -5473,7 +5468,7 @@
       </c>
       <c r="C81" s="24">
         <f>C76</f>
-        <v>98.132461902953565</v>
+        <v>87.149772298636236</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -5485,7 +5480,7 @@
       </c>
       <c r="C82" s="24">
         <f>C77</f>
-        <v>160.10730182375826</v>
+        <v>146.08165232597258</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -5497,7 +5492,7 @@
       </c>
       <c r="C83" s="24">
         <f>C78</f>
-        <v>92.185039969441235</v>
+        <v>115.6831013480523</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -5509,7 +5504,7 @@
       </c>
       <c r="C84" s="24">
         <f>C79</f>
-        <v>86.643124076850185</v>
+        <v>87.380202728974979</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -5533,7 +5528,7 @@
       </c>
       <c r="C86" s="24">
         <f>-'Energy Balance 2017'!F18</f>
-        <v>544.66443420107191</v>
+        <v>620.37171068291354</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -5557,7 +5552,7 @@
       </c>
       <c r="C88" s="5">
         <f>'Energy Balance 2017'!G5</f>
-        <v>5034.0136633455586</v>
+        <v>5295.878382667388</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -5737,7 +5732,7 @@
       </c>
       <c r="C103" s="24">
         <f>-'Energy Balance 2017'!G17</f>
-        <v>2092.7724080189364</v>
+        <v>2411.7790870058489</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -5749,7 +5744,7 @@
       </c>
       <c r="C104" s="24">
         <f>-'Energy Balance 2017'!G18</f>
-        <v>2941.2412553266217</v>
+        <v>2884.0992956615391</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -5785,7 +5780,7 @@
       </c>
       <c r="C107" s="5">
         <f>'Energy Balance 2017'!H6</f>
-        <v>99.635167669819978</v>
+        <v>106.93319002579594</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -5797,7 +5792,7 @@
       </c>
       <c r="C108" s="5">
         <f>-'Energy Balance 2017'!H9</f>
-        <v>1261.8843508168598</v>
+        <v>1470.0959587274372</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -5845,7 +5840,7 @@
       </c>
       <c r="C112" s="5">
         <f>'Energy Balance 2017'!H25</f>
-        <v>714.94006808840356</v>
+        <v>718.46919819610491</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -5857,7 +5852,7 @@
       </c>
       <c r="C113" s="5">
         <f>'Energy Balance 2017'!H26</f>
-        <v>1059.1373970396792</v>
+        <v>1025.0792974316162</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -5869,7 +5864,7 @@
       </c>
       <c r="C114" s="5">
         <f>'Energy Balance 2017'!H27</f>
-        <v>38.348248213293964</v>
+        <v>42.785328417037135</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -5881,7 +5876,7 @@
       </c>
       <c r="C115" s="5">
         <f>'Energy Balance 2017'!H28</f>
-        <v>742.29336401676699</v>
+        <v>739.99228323433954</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -5905,7 +5900,7 @@
       </c>
       <c r="C117" s="5">
         <f>C112</f>
-        <v>714.94006808840356</v>
+        <v>718.46919819610491</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -5917,7 +5912,7 @@
       </c>
       <c r="C118" s="5">
         <f>C113</f>
-        <v>1059.1373970396792</v>
+        <v>1025.0792974316162</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -5929,7 +5924,7 @@
       </c>
       <c r="C119" s="5">
         <f>C114</f>
-        <v>38.348248213293964</v>
+        <v>42.785328417037135</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -5941,7 +5936,7 @@
       </c>
       <c r="C120" s="5">
         <f>C115</f>
-        <v>742.29336401676699</v>
+        <v>739.99228323433954</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -5953,7 +5948,7 @@
       </c>
       <c r="C121" s="5">
         <f>'Energy Balance 2017'!H17</f>
-        <v>2092.7724080189364</v>
+        <v>2411.7790870058489</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -5965,7 +5960,7 @@
       </c>
       <c r="C122" s="5">
         <f>'Energy Balance 2017'!H18</f>
-        <v>2054.8110221894326</v>
+        <v>1884.8186415140672</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -5977,7 +5972,7 @@
       </c>
       <c r="C123" s="5">
         <f>'Energy Balance 2017'!H22</f>
-        <v>430.6151697031857</v>
+        <v>407.10885253917718</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -6001,7 +5996,7 @@
       </c>
       <c r="C125" s="5">
         <f>'Energy Balance 2017'!H6</f>
-        <v>99.635167669819978</v>
+        <v>106.93319002579594</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -6049,7 +6044,7 @@
       </c>
       <c r="C129" s="5">
         <f>'Energy Balance 2017'!I24</f>
-        <v>52.619899118795843</v>
+        <v>61.437384387783851</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -6061,7 +6056,7 @@
       </c>
       <c r="C130" s="5">
         <f>'Energy Balance 2017'!I25</f>
-        <v>9.4953201417375954</v>
+        <v>9.6805474918382135</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -6073,7 +6068,7 @@
       </c>
       <c r="C131" s="5">
         <f>'Energy Balance 2017'!I26</f>
-        <v>26.182287188306248</v>
+        <v>26.49297201977658</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -6109,7 +6104,7 @@
       </c>
       <c r="C134" s="5">
         <f>C129</f>
-        <v>52.619899118795843</v>
+        <v>61.437384387783851</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -6121,7 +6116,7 @@
       </c>
       <c r="C135" s="5">
         <f>C130</f>
-        <v>9.4953201417375954</v>
+        <v>9.6805474918382135</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -6133,7 +6128,7 @@
       </c>
       <c r="C136" s="5">
         <f>C131</f>
-        <v>26.182287188306248</v>
+        <v>26.49297201977658</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
@@ -6181,7 +6176,7 @@
       </c>
       <c r="C140" s="5">
         <f>'Energy Balance 2017'!I18</f>
-        <v>118.85195238779175</v>
+        <v>120.37350197419499</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
@@ -6193,7 +6188,7 @@
       </c>
       <c r="C141" s="5">
         <f>'Energy Balance 2017'!I22</f>
-        <v>30.554445938952057</v>
+        <v>22.76259807049712</v>
       </c>
     </row>
   </sheetData>
